--- a/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03763654183294207</v>
+        <v>0.0376365418333755</v>
       </c>
       <c r="D2">
-        <v>0.05561375103236088</v>
+        <v>0.05561375103248523</v>
       </c>
       <c r="E2">
-        <v>0.2508533701970066</v>
+        <v>0.2508533701970279</v>
       </c>
       <c r="F2">
-        <v>3.133649898447317</v>
+        <v>3.133649898447231</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.372554663293542</v>
+        <v>2.372554663293485</v>
       </c>
       <c r="I2">
-        <v>0.1992918824452836</v>
+        <v>0.1992918824452907</v>
       </c>
       <c r="J2">
-        <v>23.32580876045699</v>
+        <v>23.32580876045677</v>
       </c>
       <c r="K2">
-        <v>0.1684819768922594</v>
+        <v>0.1684819768922488</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02844991756883886</v>
+        <v>0.02844991756884596</v>
       </c>
       <c r="D3">
-        <v>0.03417223707760231</v>
+        <v>0.03417223707751038</v>
       </c>
       <c r="E3">
-        <v>0.2114848304020214</v>
+        <v>0.2114848304020072</v>
       </c>
       <c r="F3">
-        <v>2.460599540087841</v>
+        <v>2.460599540087827</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.856518367118127</v>
+        <v>1.856518367118099</v>
       </c>
       <c r="I3">
-        <v>0.1639852881832802</v>
+        <v>0.1639852881832908</v>
       </c>
       <c r="J3">
         <v>19.7889248348402</v>
       </c>
       <c r="K3">
-        <v>0.1403534793007175</v>
+        <v>0.1403534793007104</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02373287498433285</v>
+        <v>0.02373287498462773</v>
       </c>
       <c r="D4">
-        <v>0.02412007225036694</v>
+        <v>0.0241200722503625</v>
       </c>
       <c r="E4">
-        <v>0.188913461242322</v>
+        <v>0.1889134612423149</v>
       </c>
       <c r="F4">
-        <v>2.112982364453231</v>
+        <v>2.112982364453245</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.590676413706689</v>
+        <v>1.590676413706703</v>
       </c>
       <c r="I4">
-        <v>0.1445051680448231</v>
+        <v>0.1445051680448337</v>
       </c>
       <c r="J4">
-        <v>17.72663365596873</v>
+        <v>17.7266336559689</v>
       </c>
       <c r="K4">
-        <v>0.1245509275023267</v>
+        <v>0.1245509275023124</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02198345779698485</v>
+        <v>0.02198345779677524</v>
       </c>
       <c r="D5">
-        <v>0.02061109019693186</v>
+        <v>0.02061109019683816</v>
       </c>
       <c r="E5">
-        <v>0.180018952159962</v>
+        <v>0.1800189521599691</v>
       </c>
       <c r="F5">
-        <v>1.983906295673108</v>
+        <v>1.983906295673094</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.492115545128499</v>
+        <v>1.492115545128513</v>
       </c>
       <c r="I5">
-        <v>0.1369849146825217</v>
+        <v>0.1369849146825146</v>
       </c>
       <c r="J5">
-        <v>16.90668875973404</v>
+        <v>16.90668875973392</v>
       </c>
       <c r="K5">
-        <v>0.1183903708261198</v>
+        <v>0.1183903708261127</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02170202370755803</v>
+        <v>0.02170202370775343</v>
       </c>
       <c r="D6">
-        <v>0.02005936259823438</v>
+        <v>0.02005936259806385</v>
       </c>
       <c r="E6">
-        <v>0.1785580152631567</v>
+        <v>0.1785580152631496</v>
       </c>
       <c r="F6">
-        <v>1.96314129758953</v>
+        <v>1.963141297589502</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.476268320857201</v>
+        <v>1.476268320857173</v>
       </c>
       <c r="I6">
-        <v>0.1357582725928843</v>
+        <v>0.1357582725928879</v>
       </c>
       <c r="J6">
-        <v>16.77160565830906</v>
+        <v>16.77160565830877</v>
       </c>
       <c r="K6">
-        <v>0.1173821527957486</v>
+        <v>0.1173821527957415</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02370864656357341</v>
+        <v>0.02370864656390381</v>
       </c>
       <c r="D7">
-        <v>0.02407058270437146</v>
+        <v>0.02407058270448026</v>
       </c>
       <c r="E7">
-        <v>0.1887923870014987</v>
+        <v>0.1887923870015271</v>
       </c>
       <c r="F7">
-        <v>2.111194946362659</v>
+        <v>2.111194946362673</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.589310955784853</v>
+        <v>1.589310955784896</v>
       </c>
       <c r="I7">
-        <v>0.14440220195225</v>
+        <v>0.1444022019522571</v>
       </c>
       <c r="J7">
         <v>17.71550056139313</v>
       </c>
       <c r="K7">
-        <v>0.1244668128138429</v>
+        <v>0.1244668128138713</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03423435137023034</v>
+        <v>0.03423435136979336</v>
       </c>
       <c r="D8">
-        <v>0.04743316186732471</v>
+        <v>0.04743316186719948</v>
       </c>
       <c r="E8">
-        <v>0.2368759688578166</v>
+        <v>0.2368759688578592</v>
       </c>
       <c r="F8">
-        <v>2.885134202352262</v>
+        <v>2.885134202352319</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.181840333443816</v>
+        <v>2.181840333443887</v>
       </c>
       <c r="I8">
-        <v>0.1865650806561945</v>
+        <v>0.1865650806562087</v>
       </c>
       <c r="J8">
-        <v>22.0785755871762</v>
+        <v>22.07857558717632</v>
       </c>
       <c r="K8">
-        <v>0.1584138327217097</v>
+        <v>0.1584138327217453</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06678707599417066</v>
+        <v>0.06678707599419198</v>
       </c>
       <c r="D9">
-        <v>0.1330946362522223</v>
+        <v>0.1330946362522205</v>
       </c>
       <c r="E9">
-        <v>0.3512652891650774</v>
+        <v>0.351265289165049</v>
       </c>
       <c r="F9">
-        <v>5.222862881109421</v>
+        <v>5.222862881109393</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.981513058044968</v>
+        <v>3.981513058044925</v>
       </c>
       <c r="I9">
-        <v>0.2969226495983435</v>
+        <v>0.2969226495983932</v>
       </c>
       <c r="J9">
-        <v>32.02070145837092</v>
+        <v>32.02070145837087</v>
       </c>
       <c r="K9">
-        <v>0.2434385317360892</v>
+        <v>0.2434385317360785</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1135841818858978</v>
+        <v>0.1135841818858196</v>
       </c>
       <c r="D10">
-        <v>0.2723875988607585</v>
+        <v>0.2723875988608775</v>
       </c>
       <c r="E10">
-        <v>0.4716725819496048</v>
+        <v>0.4716725819495977</v>
       </c>
       <c r="F10">
-        <v>8.44700703845561</v>
+        <v>8.447007038455723</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6.47718489077883</v>
+        <v>6.477184890778929</v>
       </c>
       <c r="I10">
-        <v>0.4291760780412091</v>
+        <v>0.4291760780412446</v>
       </c>
       <c r="J10">
-        <v>41.81672285456983</v>
+        <v>41.81672285456989</v>
       </c>
       <c r="K10">
-        <v>0.3397425704414516</v>
+        <v>0.33974257044148</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1576203892074091</v>
+        <v>0.1576203892073629</v>
       </c>
       <c r="D11">
-        <v>0.4122542214749458</v>
+        <v>0.4122542214748002</v>
       </c>
       <c r="E11">
         <v>0.5606153246147869</v>
       </c>
       <c r="F11">
-        <v>11.37411441222659</v>
+        <v>11.37411441222639</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8.751558710610482</v>
+        <v>8.75155871061034</v>
       </c>
       <c r="I11">
-        <v>0.5390167632704461</v>
+        <v>0.5390167632704248</v>
       </c>
       <c r="J11">
-        <v>48.54348649859577</v>
+        <v>48.54348649859537</v>
       </c>
       <c r="K11">
-        <v>0.4160306594935932</v>
+        <v>0.4160306594935861</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1932480490011912</v>
+        <v>0.1932480490010171</v>
       </c>
       <c r="D12">
-        <v>0.5294718299048391</v>
+        <v>0.5294718299046934</v>
       </c>
       <c r="E12">
         <v>0.6218196999825096</v>
       </c>
       <c r="F12">
-        <v>13.68609918335969</v>
+        <v>13.6860991833596</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10.55239188996688</v>
+        <v>10.55239188996686</v>
       </c>
       <c r="I12">
-        <v>0.6216280318222331</v>
+        <v>0.6216280318222474</v>
       </c>
       <c r="J12">
-        <v>52.86425186489748</v>
+        <v>52.8642518648972</v>
       </c>
       <c r="K12">
-        <v>0.4715243154062065</v>
+        <v>0.4715243154061781</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1826843766204433</v>
+        <v>0.1826843766203439</v>
       </c>
       <c r="D13">
-        <v>0.4943980263820791</v>
+        <v>0.4943980263821182</v>
       </c>
       <c r="E13">
         <v>0.6044822604766082</v>
       </c>
       <c r="F13">
-        <v>13.00514070981902</v>
+        <v>13.00514070981922</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10.02162128508132</v>
+        <v>10.02162128508149</v>
       </c>
       <c r="I13">
-        <v>0.5975913063341167</v>
+        <v>0.5975913063341025</v>
       </c>
       <c r="J13">
-        <v>51.66902594190776</v>
+        <v>51.66902594190793</v>
       </c>
       <c r="K13">
-        <v>0.4555323558738991</v>
+        <v>0.4555323558739204</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1597190665166579</v>
+        <v>0.1597190665164803</v>
       </c>
       <c r="D14">
-        <v>0.4190700776169756</v>
+        <v>0.4190700776170573</v>
       </c>
       <c r="E14">
-        <v>0.5644500182191905</v>
+        <v>0.5644500182191692</v>
       </c>
       <c r="F14">
-        <v>11.51156570640785</v>
+        <v>11.51156570640782</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8.858520329784056</v>
+        <v>8.858520329784</v>
       </c>
       <c r="I14">
-        <v>0.5440140265280391</v>
+        <v>0.5440140265280178</v>
       </c>
       <c r="J14">
-        <v>48.82219301837119</v>
+        <v>48.82219301837085</v>
       </c>
       <c r="K14">
         <v>0.4194311258396795</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1495543460141349</v>
+        <v>0.1495543460142628</v>
       </c>
       <c r="D15">
-        <v>0.3861726776845416</v>
+        <v>0.3861726776845487</v>
       </c>
       <c r="E15">
-        <v>0.5455744479253113</v>
+        <v>0.5455744479253255</v>
       </c>
       <c r="F15">
-        <v>10.84423533356866</v>
+        <v>10.84423533356878</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8.339345196316799</v>
+        <v>8.339345196316941</v>
       </c>
       <c r="I15">
-        <v>0.519634591144758</v>
+        <v>0.5196345911447935</v>
       </c>
       <c r="J15">
-        <v>47.44071349219183</v>
+        <v>47.44071349219217</v>
       </c>
       <c r="K15">
-        <v>0.4027862499400285</v>
+        <v>0.4027862499400072</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1115616332043246</v>
+        <v>0.111561633204623</v>
       </c>
       <c r="D16">
-        <v>0.2661312391668496</v>
+        <v>0.2661312391668282</v>
       </c>
       <c r="E16">
-        <v>0.4671274916245096</v>
+        <v>0.4671274916244954</v>
       </c>
       <c r="F16">
-        <v>8.310364968848489</v>
+        <v>8.310364968848518</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.371189853298645</v>
+        <v>6.371189853298731</v>
       </c>
       <c r="I16">
-        <v>0.423857388055886</v>
+        <v>0.4238573880559002</v>
       </c>
       <c r="J16">
-        <v>41.46047680776599</v>
+        <v>41.46047680776616</v>
       </c>
       <c r="K16">
-        <v>0.3359691501417359</v>
+        <v>0.3359691501417927</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0961270958537348</v>
+        <v>0.0961270958532765</v>
       </c>
       <c r="D17">
-        <v>0.2189915391378516</v>
+        <v>0.2189915391377308</v>
       </c>
       <c r="E17">
-        <v>0.4307591082692355</v>
+        <v>0.4307591082691999</v>
       </c>
       <c r="F17">
-        <v>7.260214762970975</v>
+        <v>7.260214762971174</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.5571800901659</v>
+        <v>5.557180090166057</v>
       </c>
       <c r="I17">
-        <v>0.3822562321013265</v>
+        <v>0.3822562321013336</v>
       </c>
       <c r="J17">
-        <v>38.57001802845809</v>
+        <v>38.57001802845821</v>
       </c>
       <c r="K17">
         <v>0.3061809760823451</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08868539804798559</v>
+        <v>0.0886853980482698</v>
       </c>
       <c r="D18">
-        <v>0.1966896277446413</v>
+        <v>0.1966896277444246</v>
       </c>
       <c r="E18">
-        <v>0.4120329988055715</v>
+        <v>0.4120329988055573</v>
       </c>
       <c r="F18">
-        <v>6.748888927258832</v>
+        <v>6.748888927258861</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.161249827961313</v>
+        <v>5.16124982796137</v>
       </c>
       <c r="I18">
-        <v>0.3614799276584364</v>
+        <v>0.3614799276584577</v>
       </c>
       <c r="J18">
-        <v>37.05502402930682</v>
+        <v>37.05502402930699</v>
       </c>
       <c r="K18">
         <v>0.2911156886035826</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08635072923939546</v>
+        <v>0.08635072923947362</v>
       </c>
       <c r="D19">
-        <v>0.1897572879903127</v>
+        <v>0.1897572879903553</v>
       </c>
       <c r="E19">
         <v>0.4059780778201514</v>
       </c>
       <c r="F19">
-        <v>6.587753851692412</v>
+        <v>6.587753851692469</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5.036540835910372</v>
+        <v>5.036540835910387</v>
       </c>
       <c r="I19">
-        <v>0.3548530864010715</v>
+        <v>0.3548530864010147</v>
       </c>
       <c r="J19">
-        <v>36.56140900775762</v>
+        <v>36.56140900775773</v>
       </c>
       <c r="K19">
-        <v>0.2862829523673369</v>
+        <v>0.2862829523673156</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09760456879384094</v>
+        <v>0.09760456879383739</v>
       </c>
       <c r="D20">
-        <v>0.2234544948224908</v>
+        <v>0.2234544948223753</v>
       </c>
       <c r="E20">
-        <v>0.4343787243005437</v>
+        <v>0.4343787243005011</v>
       </c>
       <c r="F20">
-        <v>7.361331530154757</v>
+        <v>7.361331530154558</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5.635510635389778</v>
+        <v>5.635510635389636</v>
       </c>
       <c r="I20">
-        <v>0.3863218299528626</v>
+        <v>0.386321829952827</v>
       </c>
       <c r="J20">
-        <v>38.86080094238957</v>
+        <v>38.86080094238923</v>
       </c>
       <c r="K20">
-        <v>0.3091140096196909</v>
+        <v>0.3091140096196696</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1653923507337467</v>
+        <v>0.1653923507336224</v>
       </c>
       <c r="D21">
-        <v>0.4375543682984215</v>
+        <v>0.4375543682985032</v>
       </c>
       <c r="E21">
-        <v>0.5746610371155754</v>
+        <v>0.5746610371155683</v>
       </c>
       <c r="F21">
-        <v>11.88230025112807</v>
+        <v>11.88230025112833</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9.147083918638771</v>
+        <v>9.147083918638913</v>
       </c>
       <c r="I21">
-        <v>0.5574333859734111</v>
+        <v>0.5574333859733969</v>
       </c>
       <c r="J21">
-        <v>49.55935385773466</v>
+        <v>49.55935385773518</v>
       </c>
       <c r="K21">
-        <v>0.4285339912665833</v>
+        <v>0.4285339912665904</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1653923507337467</v>
+        <v>0.1653923507336224</v>
       </c>
       <c r="D22">
-        <v>0.4375543682984215</v>
+        <v>0.4375543682985032</v>
       </c>
       <c r="E22">
-        <v>0.5746610371155754</v>
+        <v>0.5746610371155683</v>
       </c>
       <c r="F22">
-        <v>11.88230025112807</v>
+        <v>11.88230025112833</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9.147083918638771</v>
+        <v>9.147083918638913</v>
       </c>
       <c r="I22">
-        <v>0.5574333859734111</v>
+        <v>0.5574333859733969</v>
       </c>
       <c r="J22">
-        <v>49.55935385773466</v>
+        <v>49.55935385773518</v>
       </c>
       <c r="K22">
-        <v>0.4285339912665833</v>
+        <v>0.4285339912665904</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1653923507337467</v>
+        <v>0.1653923507336224</v>
       </c>
       <c r="D23">
-        <v>0.4375543682984215</v>
+        <v>0.4375543682985032</v>
       </c>
       <c r="E23">
-        <v>0.5746610371155754</v>
+        <v>0.5746610371155683</v>
       </c>
       <c r="F23">
-        <v>11.88230025112807</v>
+        <v>11.88230025112833</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9.147083918638771</v>
+        <v>9.147083918638913</v>
       </c>
       <c r="I23">
-        <v>0.5574333859734111</v>
+        <v>0.5574333859733969</v>
       </c>
       <c r="J23">
-        <v>49.55935385773466</v>
+        <v>49.55935385773518</v>
       </c>
       <c r="K23">
-        <v>0.4285339912665833</v>
+        <v>0.4285339912665904</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1653923507337467</v>
+        <v>0.1653923507336224</v>
       </c>
       <c r="D24">
-        <v>0.4375543682984215</v>
+        <v>0.4375543682985032</v>
       </c>
       <c r="E24">
-        <v>0.5746610371155754</v>
+        <v>0.5746610371155683</v>
       </c>
       <c r="F24">
-        <v>11.88230025112807</v>
+        <v>11.88230025112833</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9.147083918638771</v>
+        <v>9.147083918638913</v>
       </c>
       <c r="I24">
-        <v>0.5574333859734111</v>
+        <v>0.5574333859733969</v>
       </c>
       <c r="J24">
-        <v>49.55935385773466</v>
+        <v>49.55935385773518</v>
       </c>
       <c r="K24">
-        <v>0.4285339912665833</v>
+        <v>0.4285339912665904</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1653923507337467</v>
+        <v>0.1653923507336224</v>
       </c>
       <c r="D25">
-        <v>0.4375543682984215</v>
+        <v>0.4375543682985032</v>
       </c>
       <c r="E25">
-        <v>0.5746610371155754</v>
+        <v>0.5746610371155683</v>
       </c>
       <c r="F25">
-        <v>11.88230025112807</v>
+        <v>11.88230025112833</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9.147083918638771</v>
+        <v>9.147083918638913</v>
       </c>
       <c r="I25">
-        <v>0.5574333859734111</v>
+        <v>0.5574333859733969</v>
       </c>
       <c r="J25">
-        <v>49.55935385773466</v>
+        <v>49.55935385773518</v>
       </c>
       <c r="K25">
-        <v>0.4285339912665833</v>
+        <v>0.4285339912665904</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0376365418333755</v>
+        <v>0.03763654183294207</v>
       </c>
       <c r="D2">
-        <v>0.05561375103248523</v>
+        <v>0.05561375103236088</v>
       </c>
       <c r="E2">
-        <v>0.2508533701970279</v>
+        <v>0.2508533701970066</v>
       </c>
       <c r="F2">
-        <v>3.133649898447231</v>
+        <v>3.133649898447317</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.372554663293485</v>
+        <v>2.372554663293542</v>
       </c>
       <c r="I2">
-        <v>0.1992918824452907</v>
+        <v>0.1992918824452836</v>
       </c>
       <c r="J2">
-        <v>23.32580876045677</v>
+        <v>23.32580876045699</v>
       </c>
       <c r="K2">
-        <v>0.1684819768922488</v>
+        <v>0.1684819768922594</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02844991756884596</v>
+        <v>0.02844991756883886</v>
       </c>
       <c r="D3">
-        <v>0.03417223707751038</v>
+        <v>0.03417223707760231</v>
       </c>
       <c r="E3">
-        <v>0.2114848304020072</v>
+        <v>0.2114848304020214</v>
       </c>
       <c r="F3">
-        <v>2.460599540087827</v>
+        <v>2.460599540087841</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.856518367118099</v>
+        <v>1.856518367118127</v>
       </c>
       <c r="I3">
-        <v>0.1639852881832908</v>
+        <v>0.1639852881832802</v>
       </c>
       <c r="J3">
         <v>19.7889248348402</v>
       </c>
       <c r="K3">
-        <v>0.1403534793007104</v>
+        <v>0.1403534793007175</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02373287498462773</v>
+        <v>0.02373287498433285</v>
       </c>
       <c r="D4">
-        <v>0.0241200722503625</v>
+        <v>0.02412007225036694</v>
       </c>
       <c r="E4">
-        <v>0.1889134612423149</v>
+        <v>0.188913461242322</v>
       </c>
       <c r="F4">
-        <v>2.112982364453245</v>
+        <v>2.112982364453231</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.590676413706703</v>
+        <v>1.590676413706689</v>
       </c>
       <c r="I4">
-        <v>0.1445051680448337</v>
+        <v>0.1445051680448231</v>
       </c>
       <c r="J4">
-        <v>17.7266336559689</v>
+        <v>17.72663365596873</v>
       </c>
       <c r="K4">
-        <v>0.1245509275023124</v>
+        <v>0.1245509275023267</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02198345779677524</v>
+        <v>0.02198345779698485</v>
       </c>
       <c r="D5">
-        <v>0.02061109019683816</v>
+        <v>0.02061109019693186</v>
       </c>
       <c r="E5">
-        <v>0.1800189521599691</v>
+        <v>0.180018952159962</v>
       </c>
       <c r="F5">
-        <v>1.983906295673094</v>
+        <v>1.983906295673108</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.492115545128513</v>
+        <v>1.492115545128499</v>
       </c>
       <c r="I5">
-        <v>0.1369849146825146</v>
+        <v>0.1369849146825217</v>
       </c>
       <c r="J5">
-        <v>16.90668875973392</v>
+        <v>16.90668875973404</v>
       </c>
       <c r="K5">
-        <v>0.1183903708261127</v>
+        <v>0.1183903708261198</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02170202370775343</v>
+        <v>0.02170202370755803</v>
       </c>
       <c r="D6">
-        <v>0.02005936259806385</v>
+        <v>0.02005936259823438</v>
       </c>
       <c r="E6">
-        <v>0.1785580152631496</v>
+        <v>0.1785580152631567</v>
       </c>
       <c r="F6">
-        <v>1.963141297589502</v>
+        <v>1.96314129758953</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.476268320857173</v>
+        <v>1.476268320857201</v>
       </c>
       <c r="I6">
-        <v>0.1357582725928879</v>
+        <v>0.1357582725928843</v>
       </c>
       <c r="J6">
-        <v>16.77160565830877</v>
+        <v>16.77160565830906</v>
       </c>
       <c r="K6">
-        <v>0.1173821527957415</v>
+        <v>0.1173821527957486</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02370864656390381</v>
+        <v>0.02370864656357341</v>
       </c>
       <c r="D7">
-        <v>0.02407058270448026</v>
+        <v>0.02407058270437146</v>
       </c>
       <c r="E7">
-        <v>0.1887923870015271</v>
+        <v>0.1887923870014987</v>
       </c>
       <c r="F7">
-        <v>2.111194946362673</v>
+        <v>2.111194946362659</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.589310955784896</v>
+        <v>1.589310955784853</v>
       </c>
       <c r="I7">
-        <v>0.1444022019522571</v>
+        <v>0.14440220195225</v>
       </c>
       <c r="J7">
         <v>17.71550056139313</v>
       </c>
       <c r="K7">
-        <v>0.1244668128138713</v>
+        <v>0.1244668128138429</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03423435136979336</v>
+        <v>0.03423435137023034</v>
       </c>
       <c r="D8">
-        <v>0.04743316186719948</v>
+        <v>0.04743316186732471</v>
       </c>
       <c r="E8">
-        <v>0.2368759688578592</v>
+        <v>0.2368759688578166</v>
       </c>
       <c r="F8">
-        <v>2.885134202352319</v>
+        <v>2.885134202352262</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.181840333443887</v>
+        <v>2.181840333443816</v>
       </c>
       <c r="I8">
-        <v>0.1865650806562087</v>
+        <v>0.1865650806561945</v>
       </c>
       <c r="J8">
-        <v>22.07857558717632</v>
+        <v>22.0785755871762</v>
       </c>
       <c r="K8">
-        <v>0.1584138327217453</v>
+        <v>0.1584138327217097</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06678707599419198</v>
+        <v>0.06678707599417066</v>
       </c>
       <c r="D9">
-        <v>0.1330946362522205</v>
+        <v>0.1330946362522223</v>
       </c>
       <c r="E9">
-        <v>0.351265289165049</v>
+        <v>0.3512652891650774</v>
       </c>
       <c r="F9">
-        <v>5.222862881109393</v>
+        <v>5.222862881109421</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.981513058044925</v>
+        <v>3.981513058044968</v>
       </c>
       <c r="I9">
-        <v>0.2969226495983932</v>
+        <v>0.2969226495983435</v>
       </c>
       <c r="J9">
-        <v>32.02070145837087</v>
+        <v>32.02070145837092</v>
       </c>
       <c r="K9">
-        <v>0.2434385317360785</v>
+        <v>0.2434385317360892</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1135841818858196</v>
+        <v>0.1135841818858978</v>
       </c>
       <c r="D10">
-        <v>0.2723875988608775</v>
+        <v>0.2723875988607585</v>
       </c>
       <c r="E10">
-        <v>0.4716725819495977</v>
+        <v>0.4716725819496048</v>
       </c>
       <c r="F10">
-        <v>8.447007038455723</v>
+        <v>8.44700703845561</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6.477184890778929</v>
+        <v>6.47718489077883</v>
       </c>
       <c r="I10">
-        <v>0.4291760780412446</v>
+        <v>0.4291760780412091</v>
       </c>
       <c r="J10">
-        <v>41.81672285456989</v>
+        <v>41.81672285456983</v>
       </c>
       <c r="K10">
-        <v>0.33974257044148</v>
+        <v>0.3397425704414516</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1576203892073629</v>
+        <v>0.1576203892074091</v>
       </c>
       <c r="D11">
-        <v>0.4122542214748002</v>
+        <v>0.4122542214749458</v>
       </c>
       <c r="E11">
         <v>0.5606153246147869</v>
       </c>
       <c r="F11">
-        <v>11.37411441222639</v>
+        <v>11.37411441222659</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8.75155871061034</v>
+        <v>8.751558710610482</v>
       </c>
       <c r="I11">
-        <v>0.5390167632704248</v>
+        <v>0.5390167632704461</v>
       </c>
       <c r="J11">
-        <v>48.54348649859537</v>
+        <v>48.54348649859577</v>
       </c>
       <c r="K11">
-        <v>0.4160306594935861</v>
+        <v>0.4160306594935932</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1932480490010171</v>
+        <v>0.1932480490011912</v>
       </c>
       <c r="D12">
-        <v>0.5294718299046934</v>
+        <v>0.5294718299048391</v>
       </c>
       <c r="E12">
         <v>0.6218196999825096</v>
       </c>
       <c r="F12">
-        <v>13.6860991833596</v>
+        <v>13.68609918335969</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10.55239188996686</v>
+        <v>10.55239188996688</v>
       </c>
       <c r="I12">
-        <v>0.6216280318222474</v>
+        <v>0.6216280318222331</v>
       </c>
       <c r="J12">
-        <v>52.8642518648972</v>
+        <v>52.86425186489748</v>
       </c>
       <c r="K12">
-        <v>0.4715243154061781</v>
+        <v>0.4715243154062065</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1826843766203439</v>
+        <v>0.1826843766204433</v>
       </c>
       <c r="D13">
-        <v>0.4943980263821182</v>
+        <v>0.4943980263820791</v>
       </c>
       <c r="E13">
         <v>0.6044822604766082</v>
       </c>
       <c r="F13">
-        <v>13.00514070981922</v>
+        <v>13.00514070981902</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10.02162128508149</v>
+        <v>10.02162128508132</v>
       </c>
       <c r="I13">
-        <v>0.5975913063341025</v>
+        <v>0.5975913063341167</v>
       </c>
       <c r="J13">
-        <v>51.66902594190793</v>
+        <v>51.66902594190776</v>
       </c>
       <c r="K13">
-        <v>0.4555323558739204</v>
+        <v>0.4555323558738991</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1597190665164803</v>
+        <v>0.1597190665166579</v>
       </c>
       <c r="D14">
-        <v>0.4190700776170573</v>
+        <v>0.4190700776169756</v>
       </c>
       <c r="E14">
-        <v>0.5644500182191692</v>
+        <v>0.5644500182191905</v>
       </c>
       <c r="F14">
-        <v>11.51156570640782</v>
+        <v>11.51156570640785</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8.858520329784</v>
+        <v>8.858520329784056</v>
       </c>
       <c r="I14">
-        <v>0.5440140265280178</v>
+        <v>0.5440140265280391</v>
       </c>
       <c r="J14">
-        <v>48.82219301837085</v>
+        <v>48.82219301837119</v>
       </c>
       <c r="K14">
         <v>0.4194311258396795</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1495543460142628</v>
+        <v>0.1495543460141349</v>
       </c>
       <c r="D15">
-        <v>0.3861726776845487</v>
+        <v>0.3861726776845416</v>
       </c>
       <c r="E15">
-        <v>0.5455744479253255</v>
+        <v>0.5455744479253113</v>
       </c>
       <c r="F15">
-        <v>10.84423533356878</v>
+        <v>10.84423533356866</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8.339345196316941</v>
+        <v>8.339345196316799</v>
       </c>
       <c r="I15">
-        <v>0.5196345911447935</v>
+        <v>0.519634591144758</v>
       </c>
       <c r="J15">
-        <v>47.44071349219217</v>
+        <v>47.44071349219183</v>
       </c>
       <c r="K15">
-        <v>0.4027862499400072</v>
+        <v>0.4027862499400285</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.111561633204623</v>
+        <v>0.1115616332043246</v>
       </c>
       <c r="D16">
-        <v>0.2661312391668282</v>
+        <v>0.2661312391668496</v>
       </c>
       <c r="E16">
-        <v>0.4671274916244954</v>
+        <v>0.4671274916245096</v>
       </c>
       <c r="F16">
-        <v>8.310364968848518</v>
+        <v>8.310364968848489</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.371189853298731</v>
+        <v>6.371189853298645</v>
       </c>
       <c r="I16">
-        <v>0.4238573880559002</v>
+        <v>0.423857388055886</v>
       </c>
       <c r="J16">
-        <v>41.46047680776616</v>
+        <v>41.46047680776599</v>
       </c>
       <c r="K16">
-        <v>0.3359691501417927</v>
+        <v>0.3359691501417359</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0961270958532765</v>
+        <v>0.0961270958537348</v>
       </c>
       <c r="D17">
-        <v>0.2189915391377308</v>
+        <v>0.2189915391378516</v>
       </c>
       <c r="E17">
-        <v>0.4307591082691999</v>
+        <v>0.4307591082692355</v>
       </c>
       <c r="F17">
-        <v>7.260214762971174</v>
+        <v>7.260214762970975</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.557180090166057</v>
+        <v>5.5571800901659</v>
       </c>
       <c r="I17">
-        <v>0.3822562321013336</v>
+        <v>0.3822562321013265</v>
       </c>
       <c r="J17">
-        <v>38.57001802845821</v>
+        <v>38.57001802845809</v>
       </c>
       <c r="K17">
         <v>0.3061809760823451</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0886853980482698</v>
+        <v>0.08868539804798559</v>
       </c>
       <c r="D18">
-        <v>0.1966896277444246</v>
+        <v>0.1966896277446413</v>
       </c>
       <c r="E18">
-        <v>0.4120329988055573</v>
+        <v>0.4120329988055715</v>
       </c>
       <c r="F18">
-        <v>6.748888927258861</v>
+        <v>6.748888927258832</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.16124982796137</v>
+        <v>5.161249827961313</v>
       </c>
       <c r="I18">
-        <v>0.3614799276584577</v>
+        <v>0.3614799276584364</v>
       </c>
       <c r="J18">
-        <v>37.05502402930699</v>
+        <v>37.05502402930682</v>
       </c>
       <c r="K18">
         <v>0.2911156886035826</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08635072923947362</v>
+        <v>0.08635072923939546</v>
       </c>
       <c r="D19">
-        <v>0.1897572879903553</v>
+        <v>0.1897572879903127</v>
       </c>
       <c r="E19">
         <v>0.4059780778201514</v>
       </c>
       <c r="F19">
-        <v>6.587753851692469</v>
+        <v>6.587753851692412</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5.036540835910387</v>
+        <v>5.036540835910372</v>
       </c>
       <c r="I19">
-        <v>0.3548530864010147</v>
+        <v>0.3548530864010715</v>
       </c>
       <c r="J19">
-        <v>36.56140900775773</v>
+        <v>36.56140900775762</v>
       </c>
       <c r="K19">
-        <v>0.2862829523673156</v>
+        <v>0.2862829523673369</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09760456879383739</v>
+        <v>0.09760456879384094</v>
       </c>
       <c r="D20">
-        <v>0.2234544948223753</v>
+        <v>0.2234544948224908</v>
       </c>
       <c r="E20">
-        <v>0.4343787243005011</v>
+        <v>0.4343787243005437</v>
       </c>
       <c r="F20">
-        <v>7.361331530154558</v>
+        <v>7.361331530154757</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5.635510635389636</v>
+        <v>5.635510635389778</v>
       </c>
       <c r="I20">
-        <v>0.386321829952827</v>
+        <v>0.3863218299528626</v>
       </c>
       <c r="J20">
-        <v>38.86080094238923</v>
+        <v>38.86080094238957</v>
       </c>
       <c r="K20">
-        <v>0.3091140096196696</v>
+        <v>0.3091140096196909</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1653923507336224</v>
+        <v>0.1653923507337467</v>
       </c>
       <c r="D21">
-        <v>0.4375543682985032</v>
+        <v>0.4375543682984215</v>
       </c>
       <c r="E21">
-        <v>0.5746610371155683</v>
+        <v>0.5746610371155754</v>
       </c>
       <c r="F21">
-        <v>11.88230025112833</v>
+        <v>11.88230025112807</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9.147083918638913</v>
+        <v>9.147083918638771</v>
       </c>
       <c r="I21">
-        <v>0.5574333859733969</v>
+        <v>0.5574333859734111</v>
       </c>
       <c r="J21">
-        <v>49.55935385773518</v>
+        <v>49.55935385773466</v>
       </c>
       <c r="K21">
-        <v>0.4285339912665904</v>
+        <v>0.4285339912665833</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1653923507336224</v>
+        <v>0.1653923507337467</v>
       </c>
       <c r="D22">
-        <v>0.4375543682985032</v>
+        <v>0.4375543682984215</v>
       </c>
       <c r="E22">
-        <v>0.5746610371155683</v>
+        <v>0.5746610371155754</v>
       </c>
       <c r="F22">
-        <v>11.88230025112833</v>
+        <v>11.88230025112807</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9.147083918638913</v>
+        <v>9.147083918638771</v>
       </c>
       <c r="I22">
-        <v>0.5574333859733969</v>
+        <v>0.5574333859734111</v>
       </c>
       <c r="J22">
-        <v>49.55935385773518</v>
+        <v>49.55935385773466</v>
       </c>
       <c r="K22">
-        <v>0.4285339912665904</v>
+        <v>0.4285339912665833</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1653923507336224</v>
+        <v>0.1653923507337467</v>
       </c>
       <c r="D23">
-        <v>0.4375543682985032</v>
+        <v>0.4375543682984215</v>
       </c>
       <c r="E23">
-        <v>0.5746610371155683</v>
+        <v>0.5746610371155754</v>
       </c>
       <c r="F23">
-        <v>11.88230025112833</v>
+        <v>11.88230025112807</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9.147083918638913</v>
+        <v>9.147083918638771</v>
       </c>
       <c r="I23">
-        <v>0.5574333859733969</v>
+        <v>0.5574333859734111</v>
       </c>
       <c r="J23">
-        <v>49.55935385773518</v>
+        <v>49.55935385773466</v>
       </c>
       <c r="K23">
-        <v>0.4285339912665904</v>
+        <v>0.4285339912665833</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1653923507336224</v>
+        <v>0.1653923507337467</v>
       </c>
       <c r="D24">
-        <v>0.4375543682985032</v>
+        <v>0.4375543682984215</v>
       </c>
       <c r="E24">
-        <v>0.5746610371155683</v>
+        <v>0.5746610371155754</v>
       </c>
       <c r="F24">
-        <v>11.88230025112833</v>
+        <v>11.88230025112807</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9.147083918638913</v>
+        <v>9.147083918638771</v>
       </c>
       <c r="I24">
-        <v>0.5574333859733969</v>
+        <v>0.5574333859734111</v>
       </c>
       <c r="J24">
-        <v>49.55935385773518</v>
+        <v>49.55935385773466</v>
       </c>
       <c r="K24">
-        <v>0.4285339912665904</v>
+        <v>0.4285339912665833</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1653923507336224</v>
+        <v>0.1653923507337467</v>
       </c>
       <c r="D25">
-        <v>0.4375543682985032</v>
+        <v>0.4375543682984215</v>
       </c>
       <c r="E25">
-        <v>0.5746610371155683</v>
+        <v>0.5746610371155754</v>
       </c>
       <c r="F25">
-        <v>11.88230025112833</v>
+        <v>11.88230025112807</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9.147083918638913</v>
+        <v>9.147083918638771</v>
       </c>
       <c r="I25">
-        <v>0.5574333859733969</v>
+        <v>0.5574333859734111</v>
       </c>
       <c r="J25">
-        <v>49.55935385773518</v>
+        <v>49.55935385773466</v>
       </c>
       <c r="K25">
-        <v>0.4285339912665904</v>
+        <v>0.4285339912665833</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03763654183294207</v>
+        <v>0.03497646763615592</v>
       </c>
       <c r="D2">
-        <v>0.05561375103236088</v>
+        <v>0.04910526641029467</v>
       </c>
       <c r="E2">
-        <v>0.2508533701970066</v>
+        <v>0.2489271417746011</v>
       </c>
       <c r="F2">
-        <v>3.133649898447317</v>
+        <v>3.064573608929521</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006535405358687637</v>
       </c>
       <c r="H2">
-        <v>2.372554663293542</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1992918824452836</v>
+        <v>2.318020955463268</v>
       </c>
       <c r="J2">
-        <v>23.32580876045699</v>
+        <v>0.1972074927729537</v>
       </c>
       <c r="K2">
-        <v>0.1684819768922594</v>
+        <v>23.19303146217885</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1670663430283348</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02844991756883886</v>
+        <v>0.02632065283475882</v>
       </c>
       <c r="D3">
-        <v>0.03417223707760231</v>
+        <v>0.02920147726883648</v>
       </c>
       <c r="E3">
-        <v>0.2114848304020214</v>
+        <v>0.2099070996315575</v>
       </c>
       <c r="F3">
-        <v>2.460599540087841</v>
+        <v>2.414291048040425</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006809454425020159</v>
       </c>
       <c r="H3">
-        <v>1.856518367118127</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1639852881832802</v>
+        <v>1.819811347289431</v>
       </c>
       <c r="J3">
-        <v>19.7889248348402</v>
+        <v>0.162465976708603</v>
       </c>
       <c r="K3">
-        <v>0.1403534793007175</v>
+        <v>19.68468658723822</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1392786999564031</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02373287498433285</v>
+        <v>0.02190311738438666</v>
       </c>
       <c r="D4">
-        <v>0.02412007225036694</v>
+        <v>0.02000704857538693</v>
       </c>
       <c r="E4">
-        <v>0.188913461242322</v>
+        <v>0.1875142357253665</v>
       </c>
       <c r="F4">
-        <v>2.112982364453231</v>
+        <v>2.079065939844938</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006972659258481332</v>
       </c>
       <c r="H4">
-        <v>1.590676413706689</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1445051680448231</v>
+        <v>1.563676044162534</v>
       </c>
       <c r="J4">
-        <v>17.72663365596873</v>
+        <v>0.1432806065351109</v>
       </c>
       <c r="K4">
-        <v>0.1245509275023267</v>
+        <v>17.63755927982925</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1236516340736706</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02198345779698485</v>
+        <v>0.02027143355254779</v>
       </c>
       <c r="D5">
-        <v>0.02061109019693186</v>
+        <v>0.01683347182543615</v>
       </c>
       <c r="E5">
-        <v>0.180018952159962</v>
+        <v>0.1786863230389883</v>
       </c>
       <c r="F5">
-        <v>1.983906295673108</v>
+        <v>1.954776076292589</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007038425640245242</v>
       </c>
       <c r="H5">
-        <v>1.492115545128499</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1369849146825217</v>
+        <v>1.468865008883611</v>
       </c>
       <c r="J5">
-        <v>16.90668875973404</v>
+        <v>0.1358716089947123</v>
       </c>
       <c r="K5">
-        <v>0.1183903708261198</v>
+        <v>16.82339099236134</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1175568075251121</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02170202370755803</v>
+        <v>0.0200093389962781</v>
       </c>
       <c r="D6">
-        <v>0.02005936259823438</v>
+        <v>0.01633675036651949</v>
       </c>
       <c r="E6">
-        <v>0.1785580152631567</v>
+        <v>0.1772361329087886</v>
       </c>
       <c r="F6">
-        <v>1.96314129758953</v>
+        <v>1.934792841137707</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007049313935199509</v>
       </c>
       <c r="H6">
-        <v>1.476268320857201</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1357582725928843</v>
+        <v>1.453630315361664</v>
       </c>
       <c r="J6">
-        <v>16.77160565830906</v>
+        <v>0.1346629979445595</v>
       </c>
       <c r="K6">
-        <v>0.1173821527957486</v>
+        <v>16.68924688734069</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1165592132047735</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02370864656357341</v>
+        <v>0.02188049184911378</v>
       </c>
       <c r="D7">
-        <v>0.02407058270437146</v>
+        <v>0.01996213182672868</v>
       </c>
       <c r="E7">
-        <v>0.1887923870014987</v>
+        <v>0.1873940816956718</v>
       </c>
       <c r="F7">
-        <v>2.111194946362659</v>
+        <v>2.077343999138819</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006973548620467599</v>
       </c>
       <c r="H7">
-        <v>1.589310955784853</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.14440220195225</v>
+        <v>1.562361882423346</v>
       </c>
       <c r="J7">
-        <v>17.71550056139313</v>
+        <v>0.1431791723982805</v>
       </c>
       <c r="K7">
-        <v>0.1244668128138429</v>
+        <v>17.62650552717008</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1235684264961741</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03423435137023034</v>
+        <v>0.03176454294970199</v>
       </c>
       <c r="D8">
-        <v>0.04743316186732471</v>
+        <v>0.04147860333279851</v>
       </c>
       <c r="E8">
-        <v>0.2368759688578166</v>
+        <v>0.2350793918393919</v>
       </c>
       <c r="F8">
-        <v>2.885134202352262</v>
+        <v>2.824340977576412</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006631328068927089</v>
       </c>
       <c r="H8">
-        <v>2.181840333443816</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1865650806561945</v>
+        <v>2.133791075935008</v>
       </c>
       <c r="J8">
-        <v>22.0785755871762</v>
+        <v>0.1846896375140794</v>
       </c>
       <c r="K8">
-        <v>0.1584138327217097</v>
+        <v>21.95627357842307</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1571248238446827</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06678707599417066</v>
+        <v>0.06263589753541865</v>
       </c>
       <c r="D9">
-        <v>0.1330946362522223</v>
+        <v>0.1221289355284121</v>
       </c>
       <c r="E9">
-        <v>0.3512652891650774</v>
+        <v>0.3481415702312489</v>
       </c>
       <c r="F9">
-        <v>5.222862881109421</v>
+        <v>5.083967221460171</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005880555001453224</v>
       </c>
       <c r="H9">
-        <v>3.981513058044968</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2969226495983435</v>
+        <v>3.872356415353821</v>
       </c>
       <c r="J9">
-        <v>32.02070145837092</v>
+        <v>0.2929473699363996</v>
       </c>
       <c r="K9">
-        <v>0.2434385317360892</v>
+        <v>31.79647229355157</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2408561333610386</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1135841818858978</v>
+        <v>0.1068768902066282</v>
       </c>
       <c r="D10">
-        <v>0.2723875988607585</v>
+        <v>0.2533375043318351</v>
       </c>
       <c r="E10">
-        <v>0.4716725819496048</v>
+        <v>0.465851803117026</v>
       </c>
       <c r="F10">
-        <v>8.44700703845561</v>
+        <v>8.170664482534249</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005153848314821322</v>
       </c>
       <c r="H10">
-        <v>6.47718489077883</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4291760780412091</v>
+        <v>6.260597933703721</v>
       </c>
       <c r="J10">
-        <v>41.81672285456983</v>
+        <v>0.4210354946854977</v>
       </c>
       <c r="K10">
-        <v>0.3397425704414516</v>
+        <v>41.40366150437757</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.3345284308786916</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1576203892074091</v>
+        <v>0.147062592537953</v>
       </c>
       <c r="D11">
-        <v>0.4122542214749458</v>
+        <v>0.3804482348118583</v>
       </c>
       <c r="E11">
-        <v>0.5606153246147869</v>
+        <v>0.5498983916524907</v>
       </c>
       <c r="F11">
-        <v>11.37411441222659</v>
+        <v>10.86855325437199</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004656721504095377</v>
       </c>
       <c r="H11">
-        <v>8.751558710610482</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5390167632704461</v>
+        <v>8.355896148350979</v>
       </c>
       <c r="J11">
-        <v>48.54348649859577</v>
+        <v>0.5233996003727484</v>
       </c>
       <c r="K11">
-        <v>0.4160306594935932</v>
+        <v>47.80789291209811</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.4060295956014244</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1932480490011912</v>
+        <v>0.1758226983176669</v>
       </c>
       <c r="D12">
-        <v>0.5294718299048391</v>
+        <v>0.4744410303915991</v>
       </c>
       <c r="E12">
-        <v>0.6218196999825096</v>
+        <v>0.6016488197523984</v>
       </c>
       <c r="F12">
-        <v>13.68609918335969</v>
+        <v>12.75404333018525</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004357444182466752</v>
       </c>
       <c r="H12">
-        <v>10.55239188996688</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6216280318222331</v>
+        <v>9.823574848928018</v>
       </c>
       <c r="J12">
-        <v>52.86425186489748</v>
+        <v>0.5916482030207035</v>
       </c>
       <c r="K12">
-        <v>0.4715243154062065</v>
+        <v>51.52445550439541</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.4522769760936569</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1826843766204433</v>
+        <v>0.1679844149808822</v>
       </c>
       <c r="D13">
-        <v>0.4943980263820791</v>
+        <v>0.4486134608719645</v>
       </c>
       <c r="E13">
-        <v>0.6044822604766082</v>
+        <v>0.5881101739621855</v>
       </c>
       <c r="F13">
-        <v>13.00514070981902</v>
+        <v>12.24341763589777</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004435286703676377</v>
       </c>
       <c r="H13">
-        <v>10.02162128508132</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5975913063341167</v>
+        <v>9.425857350683088</v>
       </c>
       <c r="J13">
-        <v>51.66902594190776</v>
+        <v>0.5733775515902266</v>
       </c>
       <c r="K13">
-        <v>0.4555323558738991</v>
+        <v>50.57070861582872</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.4400003446668777</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1597190665166579</v>
+        <v>0.1488969133493967</v>
       </c>
       <c r="D14">
-        <v>0.4190700776169756</v>
+        <v>0.3863766309195213</v>
       </c>
       <c r="E14">
-        <v>0.5644500182191905</v>
+        <v>0.5533794458863639</v>
       </c>
       <c r="F14">
-        <v>11.51156570640785</v>
+        <v>10.9898284099537</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004636439462392117</v>
       </c>
       <c r="H14">
-        <v>8.858520329784056</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5440140265280391</v>
+        <v>8.45022142014858</v>
       </c>
       <c r="J14">
-        <v>48.82219301837119</v>
+        <v>0.5278585289735176</v>
       </c>
       <c r="K14">
-        <v>0.4194311258396795</v>
+        <v>48.06372748908598</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.4090842004718596</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1495543460141349</v>
+        <v>0.1399178571777213</v>
       </c>
       <c r="D15">
-        <v>0.3861726776845416</v>
+        <v>0.357451539018804</v>
       </c>
       <c r="E15">
-        <v>0.5455744479253113</v>
+        <v>0.5360777120005906</v>
       </c>
       <c r="F15">
-        <v>10.84423533356866</v>
+        <v>10.39475050993198</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004737472356361077</v>
       </c>
       <c r="H15">
-        <v>8.339345196316799</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.519634591144758</v>
+        <v>7.987488566892452</v>
       </c>
       <c r="J15">
-        <v>47.44071349219183</v>
+        <v>0.505876110665497</v>
       </c>
       <c r="K15">
-        <v>0.4027862499400285</v>
+        <v>46.78434207149223</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.3939785003096929</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1115616332043246</v>
+        <v>0.1049829928794352</v>
       </c>
       <c r="D16">
-        <v>0.2661312391668496</v>
+        <v>0.2474984487908802</v>
       </c>
       <c r="E16">
-        <v>0.4671274916245096</v>
+        <v>0.4614573130167159</v>
       </c>
       <c r="F16">
-        <v>8.310364968848489</v>
+        <v>8.04134403562125</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005180272567537609</v>
       </c>
       <c r="H16">
-        <v>6.371189853298645</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.423857388055886</v>
+        <v>6.160323891620138</v>
       </c>
       <c r="J16">
-        <v>41.46047680776599</v>
+        <v>0.4159479227230136</v>
       </c>
       <c r="K16">
-        <v>0.3359691501417359</v>
+        <v>41.05762319712733</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.3309021370690814</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0961270958537348</v>
+        <v>0.09045777176275749</v>
       </c>
       <c r="D17">
-        <v>0.2189915391378516</v>
+        <v>0.2032811508792491</v>
       </c>
       <c r="E17">
-        <v>0.4307591082692355</v>
+        <v>0.4261145543959231</v>
       </c>
       <c r="F17">
-        <v>7.260214762970975</v>
+        <v>7.041900954054341</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005394579339937142</v>
       </c>
       <c r="H17">
-        <v>5.5571800901659</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3822562321013265</v>
+        <v>5.385939657420138</v>
       </c>
       <c r="J17">
-        <v>38.57001802845809</v>
+        <v>0.3759241951337771</v>
       </c>
       <c r="K17">
-        <v>0.3061809760823451</v>
+        <v>38.23751774951774</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.3021154950192511</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08868539804798559</v>
+        <v>0.08341940796929492</v>
       </c>
       <c r="D18">
-        <v>0.1966896277446413</v>
+        <v>0.1822579432894393</v>
       </c>
       <c r="E18">
-        <v>0.4120329988055715</v>
+        <v>0.4078183616536464</v>
       </c>
       <c r="F18">
-        <v>6.748888927258832</v>
+        <v>6.552387615419718</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005506866213899636</v>
       </c>
       <c r="H18">
-        <v>5.161249827961313</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3614799276584364</v>
+        <v>5.007057643092963</v>
       </c>
       <c r="J18">
-        <v>37.05502402930682</v>
+        <v>0.3558113963891927</v>
       </c>
       <c r="K18">
-        <v>0.2911156886035826</v>
+        <v>36.75254963051049</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2874697368972292</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08635072923939546</v>
+        <v>0.08120785079589865</v>
       </c>
       <c r="D19">
-        <v>0.1897572879903127</v>
+        <v>0.1757134723483276</v>
       </c>
       <c r="E19">
-        <v>0.4059780778201514</v>
+        <v>0.4018912021963033</v>
       </c>
       <c r="F19">
-        <v>6.587753851692412</v>
+        <v>6.3978155008393</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005543454685994748</v>
       </c>
       <c r="H19">
-        <v>5.036540835910372</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3548530864010715</v>
+        <v>4.887478548157404</v>
       </c>
       <c r="J19">
-        <v>36.56140900775762</v>
+        <v>0.3493820692759755</v>
       </c>
       <c r="K19">
-        <v>0.2862829523673369</v>
+        <v>36.26793300994751</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2827616350436273</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09760456879384094</v>
+        <v>0.09185287863992997</v>
       </c>
       <c r="D20">
-        <v>0.2234544948224908</v>
+        <v>0.2074815497803932</v>
       </c>
       <c r="E20">
-        <v>0.4343787243005437</v>
+        <v>0.429644343375351</v>
       </c>
       <c r="F20">
-        <v>7.361331530154757</v>
+        <v>7.138507823209721</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005373026298264305</v>
       </c>
       <c r="H20">
-        <v>5.635510635389778</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3863218299528626</v>
+        <v>5.46074558136479</v>
       </c>
       <c r="J20">
-        <v>38.86080094238957</v>
+        <v>0.3798513558767951</v>
       </c>
       <c r="K20">
-        <v>0.3091140096196909</v>
+        <v>38.52207207380309</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.3049608474651535</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1653923507337467</v>
+        <v>0.1537949788258821</v>
       </c>
       <c r="D21">
-        <v>0.4375543682984215</v>
+        <v>0.4022536582854848</v>
       </c>
       <c r="E21">
-        <v>0.5746610371155754</v>
+        <v>0.5625460070053805</v>
       </c>
       <c r="F21">
-        <v>11.88230025112807</v>
+        <v>11.31294846519944</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004583138483859852</v>
       </c>
       <c r="H21">
-        <v>9.147083918638771</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5574333859734111</v>
+        <v>8.701590271958366</v>
       </c>
       <c r="J21">
-        <v>49.55935385773466</v>
+        <v>0.5396887005925706</v>
       </c>
       <c r="K21">
-        <v>0.4285339912665833</v>
+        <v>48.73352744131057</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.4171655602120481</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1653923507337467</v>
+        <v>0.1537949788258821</v>
       </c>
       <c r="D22">
-        <v>0.4375543682984215</v>
+        <v>0.4022536582854848</v>
       </c>
       <c r="E22">
-        <v>0.5746610371155754</v>
+        <v>0.5625460070053805</v>
       </c>
       <c r="F22">
-        <v>11.88230025112807</v>
+        <v>11.31294846519944</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0004583138483859852</v>
       </c>
       <c r="H22">
-        <v>9.147083918638771</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5574333859734111</v>
+        <v>8.701590271958366</v>
       </c>
       <c r="J22">
-        <v>49.55935385773466</v>
+        <v>0.5396887005925706</v>
       </c>
       <c r="K22">
-        <v>0.4285339912665833</v>
+        <v>48.73352744131057</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.4171655602120481</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1653923507337467</v>
+        <v>0.1537949788258821</v>
       </c>
       <c r="D23">
-        <v>0.4375543682984215</v>
+        <v>0.4022536582854848</v>
       </c>
       <c r="E23">
-        <v>0.5746610371155754</v>
+        <v>0.5625460070053805</v>
       </c>
       <c r="F23">
-        <v>11.88230025112807</v>
+        <v>11.31294846519944</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004583138483859852</v>
       </c>
       <c r="H23">
-        <v>9.147083918638771</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5574333859734111</v>
+        <v>8.701590271958366</v>
       </c>
       <c r="J23">
-        <v>49.55935385773466</v>
+        <v>0.5396887005925706</v>
       </c>
       <c r="K23">
-        <v>0.4285339912665833</v>
+        <v>48.73352744131057</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.4171655602120481</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1653923507337467</v>
+        <v>0.1537949788258821</v>
       </c>
       <c r="D24">
-        <v>0.4375543682984215</v>
+        <v>0.4022536582854848</v>
       </c>
       <c r="E24">
-        <v>0.5746610371155754</v>
+        <v>0.5625460070053805</v>
       </c>
       <c r="F24">
-        <v>11.88230025112807</v>
+        <v>11.31294846519944</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0004583138483859852</v>
       </c>
       <c r="H24">
-        <v>9.147083918638771</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5574333859734111</v>
+        <v>8.701590271958366</v>
       </c>
       <c r="J24">
-        <v>49.55935385773466</v>
+        <v>0.5396887005925706</v>
       </c>
       <c r="K24">
-        <v>0.4285339912665833</v>
+        <v>48.73352744131057</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.4171655602120481</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1653923507337467</v>
+        <v>0.1537949788258821</v>
       </c>
       <c r="D25">
-        <v>0.4375543682984215</v>
+        <v>0.4022536582854848</v>
       </c>
       <c r="E25">
-        <v>0.5746610371155754</v>
+        <v>0.5625460070053805</v>
       </c>
       <c r="F25">
-        <v>11.88230025112807</v>
+        <v>11.31294846519944</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0004583138483859852</v>
       </c>
       <c r="H25">
-        <v>9.147083918638771</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5574333859734111</v>
+        <v>8.701590271958366</v>
       </c>
       <c r="J25">
-        <v>49.55935385773466</v>
+        <v>0.5396887005925706</v>
       </c>
       <c r="K25">
-        <v>0.4285339912665833</v>
+        <v>48.73352744131057</v>
       </c>
       <c r="L25">
+        <v>0.4171655602120481</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03497646763615592</v>
+        <v>0.1070677971362954</v>
       </c>
       <c r="D2">
-        <v>0.04910526641029467</v>
+        <v>0.4182539781928085</v>
       </c>
       <c r="E2">
-        <v>0.2489271417746011</v>
+        <v>0.01756753388287313</v>
       </c>
       <c r="F2">
-        <v>3.064573608929521</v>
+        <v>7.804566746917374</v>
       </c>
       <c r="G2">
-        <v>0.0006535405358687637</v>
+        <v>0.0007188230092654619</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.318020955463268</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1972074927729537</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>23.19303146217885</v>
+        <v>7.432960299632526</v>
       </c>
       <c r="L2">
-        <v>0.1670663430283348</v>
+        <v>0.06065096839900974</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.918422630111564</v>
+      </c>
+      <c r="N2">
+        <v>0.4671061368605791</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02632065283475882</v>
+        <v>0.1002838089441411</v>
       </c>
       <c r="D3">
-        <v>0.02920147726883648</v>
+        <v>0.3649488622673402</v>
       </c>
       <c r="E3">
-        <v>0.2099070996315575</v>
+        <v>0.01805195352146605</v>
       </c>
       <c r="F3">
-        <v>2.414291048040425</v>
+        <v>6.688026172477009</v>
       </c>
       <c r="G3">
-        <v>0.0006809454425020159</v>
+        <v>0.0007457924268652589</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.819811347289431</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.162465976708603</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>19.68468658723822</v>
+        <v>6.295189932178886</v>
       </c>
       <c r="L3">
-        <v>0.1392786999564031</v>
+        <v>0.05313671193716019</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.179215762661897</v>
+      </c>
+      <c r="N3">
+        <v>0.5586430763138353</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02190311738438666</v>
+        <v>0.0966693712801785</v>
       </c>
       <c r="D4">
-        <v>0.02000704857538693</v>
+        <v>0.3360180735186873</v>
       </c>
       <c r="E4">
-        <v>0.1875142357253665</v>
+        <v>0.01835760890464777</v>
       </c>
       <c r="F4">
-        <v>2.079065939844938</v>
+        <v>6.062678197186614</v>
       </c>
       <c r="G4">
-        <v>0.0006972659258481332</v>
+        <v>0.0007621121848953033</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.563676044162534</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1432806065351109</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>17.63755927982925</v>
+        <v>5.638477365211997</v>
       </c>
       <c r="L4">
-        <v>0.1236516340736706</v>
+        <v>0.04873672177878774</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.753369950326345</v>
+      </c>
+      <c r="N4">
+        <v>0.6166947947921475</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02027143355254779</v>
+        <v>0.09531061375941619</v>
       </c>
       <c r="D5">
-        <v>0.01683347182543615</v>
+        <v>0.3249872232009778</v>
       </c>
       <c r="E5">
-        <v>0.1786863230389883</v>
+        <v>0.01848432045780579</v>
       </c>
       <c r="F5">
-        <v>1.954776076292589</v>
+        <v>5.819825581198046</v>
       </c>
       <c r="G5">
-        <v>0.0007038425640245242</v>
+        <v>0.0007687396731791784</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.468865008883611</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1358716089947123</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>16.82339099236134</v>
+        <v>5.379075028670599</v>
       </c>
       <c r="L5">
-        <v>0.1175568075251121</v>
+        <v>0.04698401951026199</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.585348898763627</v>
+      </c>
+      <c r="N5">
+        <v>0.6407862094621102</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0200093389962781</v>
+        <v>0.09509129070416122</v>
       </c>
       <c r="D6">
-        <v>0.01633675036651949</v>
+        <v>0.3231965994153967</v>
       </c>
       <c r="E6">
-        <v>0.1772361329087886</v>
+        <v>0.01850549352257524</v>
       </c>
       <c r="F6">
-        <v>1.934792841137707</v>
+        <v>5.780146589051753</v>
       </c>
       <c r="G6">
-        <v>0.0007049313935199509</v>
+        <v>0.0007698396889822167</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.453630315361664</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1346629979445595</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>16.68924688734069</v>
+        <v>5.336440889042393</v>
       </c>
       <c r="L6">
-        <v>0.1165592132047735</v>
+        <v>0.04669509401191618</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.557744713320659</v>
+      </c>
+      <c r="N6">
+        <v>0.6448121170545917</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02188049184911378</v>
+        <v>0.09665061208503545</v>
       </c>
       <c r="D7">
-        <v>0.01996213182672868</v>
+        <v>0.3358664577341415</v>
       </c>
       <c r="E7">
-        <v>0.1873940816956718</v>
+        <v>0.01835930894032489</v>
       </c>
       <c r="F7">
-        <v>2.077343999138819</v>
+        <v>6.059358068566468</v>
       </c>
       <c r="G7">
-        <v>0.0006973548620467599</v>
+        <v>0.0007622016160883333</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.562361882423346</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1431791723982805</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>17.62650552717008</v>
+        <v>5.634948347140039</v>
       </c>
       <c r="L7">
-        <v>0.1235684264961741</v>
+        <v>0.04871293608665894</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.751083370437769</v>
+      </c>
+      <c r="N7">
+        <v>0.617017972647572</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03176454294970199</v>
+        <v>0.1045973926679693</v>
       </c>
       <c r="D8">
-        <v>0.04147860333279851</v>
+        <v>0.3989488034456201</v>
       </c>
       <c r="E8">
-        <v>0.2350793918393919</v>
+        <v>0.01773290699304075</v>
       </c>
       <c r="F8">
-        <v>2.824340977576412</v>
+        <v>7.404888901559076</v>
       </c>
       <c r="G8">
-        <v>0.0006631328068927089</v>
+        <v>0.0007281977114308034</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.133791075935008</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1846896375140794</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>21.95627357842307</v>
+        <v>7.030351713525761</v>
       </c>
       <c r="L8">
-        <v>0.1571248238446827</v>
+        <v>0.0580063002035125</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.656659806960334</v>
+      </c>
+      <c r="N8">
+        <v>0.4982637682309665</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06263589753541865</v>
+        <v>0.126190228277224</v>
       </c>
       <c r="D9">
-        <v>0.1221289355284121</v>
+        <v>0.5661880773483574</v>
       </c>
       <c r="E9">
-        <v>0.3481415702312489</v>
+        <v>0.01656675432930976</v>
       </c>
       <c r="F9">
-        <v>5.083967221460171</v>
+        <v>10.73458025194606</v>
       </c>
       <c r="G9">
-        <v>0.0005880555001453224</v>
+        <v>0.0006571009182915484</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.872356415353821</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2929473699363996</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>31.79647229355157</v>
+        <v>10.25557153876323</v>
       </c>
       <c r="L9">
-        <v>0.2408561333610386</v>
+        <v>0.07884517930841639</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6.75838789356078</v>
+      </c>
+      <c r="N9">
+        <v>0.2820837480165768</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1068768902066282</v>
+        <v>0.1498513592417083</v>
       </c>
       <c r="D10">
-        <v>0.2533375043318351</v>
+        <v>0.7501546733684847</v>
       </c>
       <c r="E10">
-        <v>0.465851803117026</v>
+        <v>0.01575185200984475</v>
       </c>
       <c r="F10">
-        <v>8.170664482534249</v>
+        <v>14.14566231793339</v>
       </c>
       <c r="G10">
-        <v>0.0005153848314821322</v>
+        <v>0.0005957769867449989</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.260597933703721</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4210354946854977</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>41.40366150437757</v>
+        <v>13.32150945317107</v>
       </c>
       <c r="L10">
-        <v>0.3345284308786916</v>
+        <v>0.09813208325817868</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>8.764369225703348</v>
+      </c>
+      <c r="N10">
+        <v>0.1387045147557178</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.147062592537953</v>
+        <v>0.1646829645647756</v>
       </c>
       <c r="D11">
-        <v>0.3804482348118583</v>
+        <v>0.8675273084181185</v>
       </c>
       <c r="E11">
-        <v>0.5498983916524907</v>
+        <v>0.01540156027239847</v>
       </c>
       <c r="F11">
-        <v>10.86855325437199</v>
+        <v>16.22300020021396</v>
       </c>
       <c r="G11">
-        <v>0.0004656721504095377</v>
+        <v>0.0005621843660565081</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.355896148350979</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5233996003727484</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>47.80789291209811</v>
+        <v>15.09897920847749</v>
       </c>
       <c r="L11">
-        <v>0.4060295956014244</v>
+        <v>0.1091894257651944</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>9.929971640426572</v>
+      </c>
+      <c r="N11">
+        <v>0.07994799056833557</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1758226983176669</v>
+        <v>0.1714500214067129</v>
       </c>
       <c r="D12">
-        <v>0.4744410303915991</v>
+        <v>0.9217910321988256</v>
       </c>
       <c r="E12">
-        <v>0.6016488197523984</v>
+        <v>0.01527641374216149</v>
       </c>
       <c r="F12">
-        <v>12.75404333018525</v>
+        <v>17.16130824998498</v>
       </c>
       <c r="G12">
-        <v>0.0004357444182466752</v>
+        <v>0.0005477477684404606</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.823574848928018</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5916482030207035</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>51.52445550439541</v>
+        <v>15.88281098458214</v>
       </c>
       <c r="L12">
-        <v>0.4522769760936569</v>
+        <v>0.1140537047754293</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>10.44446964286985</v>
+      </c>
+      <c r="N12">
+        <v>0.05938570227223217</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1679844149808822</v>
+        <v>0.169922589111124</v>
       </c>
       <c r="D13">
-        <v>0.4486134608719645</v>
+        <v>0.9095000011366494</v>
       </c>
       <c r="E13">
-        <v>0.5881101739621855</v>
+        <v>0.0153028449013668</v>
       </c>
       <c r="F13">
-        <v>12.24341763589777</v>
+        <v>16.94993126905337</v>
       </c>
       <c r="G13">
-        <v>0.0004435286703676377</v>
+        <v>0.0005509633445648365</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.425857350683088</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5733775515902266</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>50.57070861582872</v>
+        <v>15.70720641248187</v>
       </c>
       <c r="L13">
-        <v>0.4400003446668777</v>
+        <v>0.1129641593297706</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10.32918166454172</v>
+      </c>
+      <c r="N13">
+        <v>0.06371362976782802</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1488969133493967</v>
+        <v>0.1652103880293936</v>
       </c>
       <c r="D14">
-        <v>0.3863766309195213</v>
+        <v>0.8717393663713153</v>
       </c>
       <c r="E14">
-        <v>0.5533794458863639</v>
+        <v>0.01539105328438595</v>
       </c>
       <c r="F14">
-        <v>10.9898284099537</v>
+        <v>16.2963114024268</v>
       </c>
       <c r="G14">
-        <v>0.0004636439462392117</v>
+        <v>0.0005610410058162163</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.45022142014858</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5278585289735176</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>48.06372748908598</v>
+        <v>15.16062789409909</v>
       </c>
       <c r="L14">
-        <v>0.4090842004718596</v>
+        <v>0.1095721339921099</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9.970427178857022</v>
+      </c>
+      <c r="N14">
+        <v>0.07821406619483628</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1399178571777213</v>
+        <v>0.1625038255159552</v>
       </c>
       <c r="D15">
-        <v>0.357451539018804</v>
+        <v>0.8501541315642385</v>
       </c>
       <c r="E15">
-        <v>0.5360777120005906</v>
+        <v>0.0154463450397273</v>
       </c>
       <c r="F15">
-        <v>10.39475050993198</v>
+        <v>15.91974766054562</v>
       </c>
       <c r="G15">
-        <v>0.0004737472356361077</v>
+        <v>0.0005669426954610098</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>7.987488566892452</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.505876110665497</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>46.78434207149223</v>
+        <v>14.84321687460974</v>
       </c>
       <c r="L15">
-        <v>0.3939785003096929</v>
+        <v>0.1076013044016122</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>9.762152513672845</v>
+      </c>
+      <c r="N15">
+        <v>0.08735615761361615</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1049829928794352</v>
+        <v>0.1489980146882317</v>
       </c>
       <c r="D16">
-        <v>0.2474984487908802</v>
+        <v>0.7434591447752723</v>
       </c>
       <c r="E16">
-        <v>0.4614573130167159</v>
+        <v>0.01577538866865336</v>
       </c>
       <c r="F16">
-        <v>8.04134403562125</v>
+        <v>14.02504593627214</v>
       </c>
       <c r="G16">
-        <v>0.0005180272567537609</v>
+        <v>0.0005978039437226517</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.160323891620138</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4159479227230136</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>41.05762319712733</v>
+        <v>13.21639256109677</v>
       </c>
       <c r="L16">
-        <v>0.3309021370690814</v>
+        <v>0.09747618427631011</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>8.695491189638659</v>
+      </c>
+      <c r="N16">
+        <v>0.1427198890054147</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09045777176275749</v>
+        <v>0.1419879538480586</v>
       </c>
       <c r="D17">
-        <v>0.2032811508792491</v>
+        <v>0.6886590818243974</v>
       </c>
       <c r="E17">
-        <v>0.4261145543959231</v>
+        <v>0.01598391219395046</v>
       </c>
       <c r="F17">
-        <v>7.041900954054341</v>
+        <v>13.0285343734547</v>
       </c>
       <c r="G17">
-        <v>0.0005394579339937142</v>
+        <v>0.0006149099905298844</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.385939657420138</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3759241951337771</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>38.23751774951774</v>
+        <v>12.33926865510253</v>
       </c>
       <c r="L17">
-        <v>0.3021154950192511</v>
+        <v>0.09199099578849967</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8.12101545988051</v>
+      </c>
+      <c r="N17">
+        <v>0.1786497446785962</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08341940796929492</v>
+        <v>0.1382915170375725</v>
       </c>
       <c r="D18">
-        <v>0.1822579432894393</v>
+        <v>0.6598936040356023</v>
       </c>
       <c r="E18">
-        <v>0.4078183616536464</v>
+        <v>0.01610538424257646</v>
       </c>
       <c r="F18">
-        <v>6.552387615419718</v>
+        <v>12.4984720260897</v>
       </c>
       <c r="G18">
-        <v>0.0005506866213899636</v>
+        <v>0.0006242878590595293</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.007057643092963</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3558113963891927</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>36.75254963051049</v>
+        <v>11.86613459031832</v>
       </c>
       <c r="L18">
-        <v>0.2874697368972292</v>
+        <v>0.08902179820358924</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7.811338984822612</v>
+      </c>
+      <c r="N18">
+        <v>0.1998609442925954</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08120785079589865</v>
+        <v>0.137088965190614</v>
       </c>
       <c r="D19">
-        <v>0.1757134723483276</v>
+        <v>0.6505524650066548</v>
       </c>
       <c r="E19">
-        <v>0.4018912021963033</v>
+        <v>0.0161467283393022</v>
       </c>
       <c r="F19">
-        <v>6.3978155008393</v>
+        <v>12.3252530966833</v>
       </c>
       <c r="G19">
-        <v>0.0005543454685994748</v>
+        <v>0.000627397417930077</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.887478548157404</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3493820692759755</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>36.26793300994751</v>
+        <v>11.71048273083213</v>
       </c>
       <c r="L19">
-        <v>0.2827616350436273</v>
+        <v>0.08804318007049972</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7.709494567735874</v>
+      </c>
+      <c r="N19">
+        <v>0.2071249313150396</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09185287863992997</v>
+        <v>0.1426972249755778</v>
       </c>
       <c r="D20">
-        <v>0.2074815497803932</v>
+        <v>0.6941882718165573</v>
       </c>
       <c r="E20">
-        <v>0.429644343375351</v>
+        <v>0.01596154266820093</v>
       </c>
       <c r="F20">
-        <v>7.138507823209721</v>
+        <v>13.12985545821175</v>
       </c>
       <c r="G20">
-        <v>0.0005373026298264305</v>
+        <v>0.0006131402520406985</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.46074558136479</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3798513558767951</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>38.52207207380309</v>
+        <v>12.42917563171159</v>
       </c>
       <c r="L20">
-        <v>0.3049608474651535</v>
+        <v>0.09255433278644176</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>8.179878194523951</v>
+      </c>
+      <c r="N20">
+        <v>0.1747655587562562</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1537949788258821</v>
+        <v>0.1665545648669706</v>
       </c>
       <c r="D21">
-        <v>0.4022536582854848</v>
+        <v>0.8824869930044201</v>
       </c>
       <c r="E21">
-        <v>0.5625460070053805</v>
+        <v>0.01536485634642615</v>
       </c>
       <c r="F21">
-        <v>11.31294846519944</v>
+        <v>16.48300545607918</v>
       </c>
       <c r="G21">
-        <v>0.0004583138483859852</v>
+        <v>0.0005581413647223822</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.701590271958366</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5396887005925706</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>48.73352744131057</v>
+        <v>15.31730637322909</v>
       </c>
       <c r="L21">
-        <v>0.4171655602120481</v>
+        <v>0.1105446441521352</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>10.07325169206587</v>
+      </c>
+      <c r="N21">
+        <v>0.07389741597027921</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1537949788258821</v>
+        <v>0.190262975299504</v>
       </c>
       <c r="D22">
-        <v>0.4022536582854848</v>
+        <v>1.075459950150901</v>
       </c>
       <c r="E22">
-        <v>0.5625460070053805</v>
+        <v>0.015035295928298</v>
       </c>
       <c r="F22">
-        <v>11.31294846519944</v>
+        <v>19.75026671269706</v>
       </c>
       <c r="G22">
-        <v>0.0004583138483859852</v>
+        <v>0.0005099307888097779</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>8.701590271958366</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5396887005925706</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>48.73352744131057</v>
+        <v>17.99076299341044</v>
       </c>
       <c r="L22">
-        <v>0.4171655602120481</v>
+        <v>0.1271477201518891</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>11.82926922416794</v>
+      </c>
+      <c r="N22">
+        <v>0.01973165589653725</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1537949788258821</v>
+        <v>0.1763015947546904</v>
       </c>
       <c r="D23">
-        <v>0.4022536582854848</v>
+        <v>0.9610051939422135</v>
       </c>
       <c r="E23">
-        <v>0.5625460070053805</v>
+        <v>0.01519936692554991</v>
       </c>
       <c r="F23">
-        <v>11.31294846519944</v>
+        <v>17.83130771581239</v>
       </c>
       <c r="G23">
-        <v>0.0004583138483859852</v>
+        <v>0.0005376897487957032</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.701590271958366</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5396887005925706</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>48.73352744131057</v>
+        <v>16.43580312936569</v>
       </c>
       <c r="L23">
-        <v>0.4171655602120481</v>
+        <v>0.1174848773923429</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>10.80760170607647</v>
+      </c>
+      <c r="N23">
+        <v>0.04679733011277776</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1537949788258821</v>
+        <v>0.1423755530461506</v>
       </c>
       <c r="D24">
-        <v>0.4022536582854848</v>
+        <v>0.6916802441145933</v>
       </c>
       <c r="E24">
-        <v>0.5625460070053805</v>
+        <v>0.01597165116956711</v>
       </c>
       <c r="F24">
-        <v>11.31294846519944</v>
+        <v>13.08391863288631</v>
       </c>
       <c r="G24">
-        <v>0.0004583138483859852</v>
+        <v>0.0006139417272137404</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8.701590271958366</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5396887005925706</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>48.73352744131057</v>
+        <v>12.38843455426561</v>
       </c>
       <c r="L24">
-        <v>0.4171655602120481</v>
+        <v>0.09229909170616679</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>8.153204075110835</v>
+      </c>
+      <c r="N24">
+        <v>0.1765199102384347</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1537949788258821</v>
+        <v>0.1194113257960652</v>
       </c>
       <c r="D25">
-        <v>0.4022536582854848</v>
+        <v>0.5138598917370985</v>
       </c>
       <c r="E25">
-        <v>0.5625460070053805</v>
+        <v>0.01687582033520796</v>
       </c>
       <c r="F25">
-        <v>11.31294846519944</v>
+        <v>9.721378166963376</v>
       </c>
       <c r="G25">
-        <v>0.0004583138483859852</v>
+        <v>0.0006772599690830808</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.701590271958366</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5396887005925706</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>48.73352744131057</v>
+        <v>9.302533099515756</v>
       </c>
       <c r="L25">
-        <v>0.4171655602120481</v>
+        <v>0.07276121203166497</v>
       </c>
       <c r="M25">
+        <v>6.136286918317808</v>
+      </c>
+      <c r="N25">
+        <v>0.3384100755445658</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1070677971362954</v>
+        <v>0.1709351188852111</v>
       </c>
       <c r="D2">
-        <v>0.4182539781928085</v>
+        <v>0.003814061620008857</v>
       </c>
       <c r="E2">
-        <v>0.01756753388287313</v>
+        <v>0.1413700081305613</v>
       </c>
       <c r="F2">
-        <v>7.804566746917374</v>
+        <v>1.092556231293088</v>
       </c>
       <c r="G2">
-        <v>0.0007188230092654619</v>
+        <v>1.06911709271381</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5729436093515687</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.9506984879442655</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.432960299632526</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06065096839900974</v>
+        <v>0.2050779805360889</v>
       </c>
       <c r="M2">
-        <v>4.918422630111564</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4671061368605791</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3.418947769698605</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1002838089441411</v>
+        <v>0.1549815055693955</v>
       </c>
       <c r="D3">
-        <v>0.3649488622673402</v>
+        <v>0.003582277351110719</v>
       </c>
       <c r="E3">
-        <v>0.01805195352146605</v>
+        <v>0.125890144084245</v>
       </c>
       <c r="F3">
-        <v>6.688026172477009</v>
+        <v>0.9588548390783416</v>
       </c>
       <c r="G3">
-        <v>0.0007457924268652589</v>
+        <v>0.9330775771858413</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5140039008981319</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.8385402002036528</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6.295189932178886</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.05313671193716019</v>
+        <v>0.1810387957057742</v>
       </c>
       <c r="M3">
-        <v>4.179215762661897</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5586430763138353</v>
+        <v>6.74968365211538</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>3.00674792959876</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0966693712801785</v>
+        <v>0.1454081563262122</v>
       </c>
       <c r="D4">
-        <v>0.3360180735186873</v>
+        <v>0.003438507203252783</v>
       </c>
       <c r="E4">
-        <v>0.01835760890464777</v>
+        <v>0.1165769268940764</v>
       </c>
       <c r="F4">
-        <v>6.062678197186614</v>
+        <v>0.8781009553847383</v>
       </c>
       <c r="G4">
-        <v>0.0007621121848953033</v>
+        <v>0.8508445890337697</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4785831765966861</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.7708910520997492</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>5.638477365211997</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.04873672177878774</v>
+        <v>0.1665594289449857</v>
       </c>
       <c r="M4">
-        <v>3.753369950326345</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6166947947921475</v>
+        <v>6.187481969423061</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.757996785443169</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09531061375941619</v>
+        <v>0.1415585954766385</v>
       </c>
       <c r="D5">
-        <v>0.3249872232009778</v>
+        <v>0.003379538290921857</v>
       </c>
       <c r="E5">
-        <v>0.01848432045780579</v>
+        <v>0.1128255639766209</v>
       </c>
       <c r="F5">
-        <v>5.819825581198046</v>
+        <v>0.8454956523573145</v>
       </c>
       <c r="G5">
-        <v>0.0007687396731791784</v>
+        <v>0.8176243643207357</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4643258690010299</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.7435996567593648</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>5.379075028670599</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04698401951026199</v>
+        <v>0.1607227222800631</v>
       </c>
       <c r="M5">
-        <v>3.585348898763627</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6407862094621102</v>
+        <v>5.958052239810286</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.657610952523243</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09509129070416122</v>
+        <v>0.1409223799854686</v>
       </c>
       <c r="D6">
-        <v>0.3231965994153967</v>
+        <v>0.003369723107089939</v>
       </c>
       <c r="E6">
-        <v>0.01850549352257524</v>
+        <v>0.1122051806006645</v>
       </c>
       <c r="F6">
-        <v>5.780146589051753</v>
+        <v>0.8400988797749278</v>
       </c>
       <c r="G6">
-        <v>0.0007698396889822167</v>
+        <v>0.8121247147698654</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4619686819667947</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.7390837880514809</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.336440889042393</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.04669509401191618</v>
+        <v>0.1597571997412359</v>
       </c>
       <c r="M6">
-        <v>3.557744713320659</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6448121170545917</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.64099821998164</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.09665061208503545</v>
+        <v>0.1453560360488666</v>
       </c>
       <c r="D7">
-        <v>0.3358664577341415</v>
+        <v>0.003437713490933803</v>
       </c>
       <c r="E7">
-        <v>0.01835930894032489</v>
+        <v>0.1165261626541039</v>
       </c>
       <c r="F7">
-        <v>6.059358068566468</v>
+        <v>0.8776600475179777</v>
       </c>
       <c r="G7">
-        <v>0.0007622016160883333</v>
+        <v>0.850395438979902</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4783902020256932</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.770521910490956</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>5.634948347140039</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.04871293608665894</v>
+        <v>0.1664804636958976</v>
       </c>
       <c r="M7">
-        <v>3.751083370437769</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.617017972647572</v>
+        <v>6.184389112219776</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.756639109398975</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1045973926679693</v>
+        <v>0.1653855607679162</v>
       </c>
       <c r="D8">
-        <v>0.3989488034456201</v>
+        <v>0.003734433481991317</v>
       </c>
       <c r="E8">
-        <v>0.01773290699304075</v>
+        <v>0.1359901327827764</v>
       </c>
       <c r="F8">
-        <v>7.404888901559076</v>
+        <v>1.046156719155803</v>
       </c>
       <c r="G8">
-        <v>0.0007281977114308034</v>
+        <v>1.021919643657156</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5524515347616727</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.9117553289741807</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.030351713525761</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0580063002035125</v>
+        <v>0.1967267252728675</v>
       </c>
       <c r="M8">
-        <v>4.656659806960334</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4982637682309665</v>
+        <v>7.348453399592813</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3.27585215753794</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.126190228277224</v>
+        <v>0.2066326205679303</v>
       </c>
       <c r="D9">
-        <v>0.5661880773483574</v>
+        <v>0.004305695732966797</v>
       </c>
       <c r="E9">
-        <v>0.01656675432930976</v>
+        <v>0.1758880622265551</v>
       </c>
       <c r="F9">
-        <v>10.73458025194606</v>
+        <v>1.388875849308519</v>
       </c>
       <c r="G9">
-        <v>0.0006571009182915484</v>
+        <v>1.370292198255299</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.7045809393086131</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.199817415203015</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.25557153876323</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.07884517930841639</v>
+        <v>0.258602119047552</v>
       </c>
       <c r="M9">
-        <v>6.75838789356078</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.2820837480165768</v>
+        <v>9.620230281550789</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>4.333816412712679</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1498513592417083</v>
+        <v>0.2384484531277025</v>
       </c>
       <c r="D10">
-        <v>0.7501546733684847</v>
+        <v>0.004720606671277494</v>
       </c>
       <c r="E10">
-        <v>0.01575185200984475</v>
+        <v>0.2065728304296499</v>
       </c>
       <c r="F10">
-        <v>14.14566231793339</v>
+        <v>1.650699818044117</v>
       </c>
       <c r="G10">
-        <v>0.0005957769867449989</v>
+        <v>1.636192068158209</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.8217641182307034</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.420425838628404</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.32150945317107</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.09813208325817868</v>
+        <v>0.3061312707616821</v>
       </c>
       <c r="M10">
-        <v>8.764369225703348</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1387045147557178</v>
+        <v>11.28258838837513</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>5.143461886391833</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1646829645647756</v>
+        <v>0.2533264553397032</v>
       </c>
       <c r="D11">
-        <v>0.8675273084181185</v>
+        <v>0.00490880889420886</v>
       </c>
       <c r="E11">
-        <v>0.01540156027239847</v>
+        <v>0.2209077807985906</v>
       </c>
       <c r="F11">
-        <v>16.22300020021396</v>
+        <v>1.772608002735893</v>
       </c>
       <c r="G11">
-        <v>0.0005621843660565081</v>
+        <v>1.759961884894921</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.8765464521693787</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.523273460825891</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.09897920847749</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1091894257651944</v>
+        <v>0.3283272794390797</v>
       </c>
       <c r="M11">
-        <v>9.929971640426572</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.07994799056833557</v>
+        <v>12.03742316731751</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>5.520805555314439</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1714500214067129</v>
+        <v>0.2590254885832763</v>
       </c>
       <c r="D12">
-        <v>0.9217910321988256</v>
+        <v>0.004980048786542568</v>
       </c>
       <c r="E12">
-        <v>0.01527641374216149</v>
+        <v>0.2263972729833554</v>
       </c>
       <c r="F12">
-        <v>17.16130824998498</v>
+        <v>1.819231198819381</v>
       </c>
       <c r="G12">
-        <v>0.0005477477684404606</v>
+        <v>1.807293423986323</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8975304249661065</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.562626836586759</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.88281098458214</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1140537047754293</v>
+        <v>0.3368263772606923</v>
       </c>
       <c r="M12">
-        <v>10.44446964286985</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.05938570227223217</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>5.665176547468263</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.169922589111124</v>
+        <v>0.2577950907653133</v>
       </c>
       <c r="D13">
-        <v>0.9095000011366494</v>
+        <v>0.004964706353920434</v>
       </c>
       <c r="E13">
-        <v>0.0153028449013668</v>
+        <v>0.225212173359111</v>
       </c>
       <c r="F13">
-        <v>16.94993126905337</v>
+        <v>1.809168685751686</v>
       </c>
       <c r="G13">
-        <v>0.0005509633445648365</v>
+        <v>1.797078166361359</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.8930000603237715</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.554132443900784</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.70720641248187</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1129641593297706</v>
+        <v>0.3349915745275638</v>
       </c>
       <c r="M13">
-        <v>10.32918166454172</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.06371362976782802</v>
+        <v>12.2615545799186</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>5.634014830967544</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1652103880293936</v>
+        <v>0.2537939729925682</v>
       </c>
       <c r="D14">
-        <v>0.8717393663713153</v>
+        <v>0.004914670086959561</v>
       </c>
       <c r="E14">
-        <v>0.01539105328438595</v>
+        <v>0.2213581362300516</v>
       </c>
       <c r="F14">
-        <v>16.2963114024268</v>
+        <v>1.776434177667468</v>
       </c>
       <c r="G14">
-        <v>0.0005610410058162163</v>
+        <v>1.763846253613451</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.8782678608639003</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.526502629036344</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.16062789409909</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1095721339921099</v>
+        <v>0.3290245538638175</v>
       </c>
       <c r="M14">
-        <v>9.970427178857022</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.07821406619483628</v>
+        <v>12.06092695796559</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>5.532652305708496</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1625038255159552</v>
+        <v>0.2513518587741146</v>
       </c>
       <c r="D15">
-        <v>0.8501541315642385</v>
+        <v>0.004884019405063</v>
       </c>
       <c r="E15">
-        <v>0.0154463450397273</v>
+        <v>0.2190056120326531</v>
       </c>
       <c r="F15">
-        <v>15.91974766054562</v>
+        <v>1.756444904128955</v>
       </c>
       <c r="G15">
-        <v>0.0005669426954610098</v>
+        <v>1.743552819181019</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8692759441535429</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.509633130535889</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.84321687460974</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1076013044016122</v>
+        <v>0.3253821702132598</v>
       </c>
       <c r="M15">
-        <v>9.762152513672845</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.08735615761361615</v>
+        <v>11.93801081193664</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>5.470763102317733</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1489980146882317</v>
+        <v>0.2374848579492692</v>
       </c>
       <c r="D16">
-        <v>0.7434591447752723</v>
+        <v>0.00470830033058256</v>
       </c>
       <c r="E16">
-        <v>0.01577538866865336</v>
+        <v>0.2056441674635963</v>
       </c>
       <c r="F16">
-        <v>14.02504593627214</v>
+        <v>1.642793918534409</v>
       </c>
       <c r="G16">
-        <v>0.0005978039437226517</v>
+        <v>1.628164848231364</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.8182158955463876</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.413758722609458</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.21639256109677</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.09747618427631011</v>
+        <v>0.3046932172293708</v>
       </c>
       <c r="M16">
-        <v>8.695491189638659</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.1427198890054147</v>
+        <v>11.23323027560724</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>5.118998371746443</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1419879538480586</v>
+        <v>0.2290862670497376</v>
       </c>
       <c r="D17">
-        <v>0.6886590818243974</v>
+        <v>0.004600395802370372</v>
       </c>
       <c r="E17">
-        <v>0.01598391219395046</v>
+        <v>0.1975485458841604</v>
       </c>
       <c r="F17">
-        <v>13.0285343734547</v>
+        <v>1.573829006475435</v>
       </c>
       <c r="G17">
-        <v>0.0006149099905298844</v>
+        <v>1.558137825724543</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.787288433135501</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.355614465804663</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.33926865510253</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.09199099578849967</v>
+        <v>0.29215613923364</v>
       </c>
       <c r="M17">
-        <v>8.12101545988051</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.1786497446785962</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>4.905638509983476</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1382915170375725</v>
+        <v>0.2242932790345691</v>
       </c>
       <c r="D18">
-        <v>0.6598936040356023</v>
+        <v>0.004538277353905329</v>
       </c>
       <c r="E18">
-        <v>0.01610538424257646</v>
+        <v>0.1929271187225154</v>
       </c>
       <c r="F18">
-        <v>12.4984720260897</v>
+        <v>1.534422406591119</v>
       </c>
       <c r="G18">
-        <v>0.0006242878590595293</v>
+        <v>1.518120878991311</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7696368626401124</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.322402777752828</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.86613459031832</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.08902179820358924</v>
+        <v>0.284998506487014</v>
       </c>
       <c r="M18">
-        <v>7.811338984822612</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.1998609442925954</v>
+        <v>10.55149949033284</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>4.783757936191535</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.137088965190614</v>
+        <v>0.2226767249391486</v>
       </c>
       <c r="D19">
-        <v>0.6505524650066548</v>
+        <v>0.004517234371002488</v>
       </c>
       <c r="E19">
-        <v>0.0161467283393022</v>
+        <v>0.1913681830281959</v>
       </c>
       <c r="F19">
-        <v>12.3252530966833</v>
+        <v>1.521123070396499</v>
       </c>
       <c r="G19">
-        <v>0.000627397417930077</v>
+        <v>1.504614918570297</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7636831078197588</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.311196188302091</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.71048273083213</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.08804318007049972</v>
+        <v>0.2825838927331006</v>
       </c>
       <c r="M19">
-        <v>7.709494567735874</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.2071249313150396</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>4.742630034449292</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1426972249755778</v>
+        <v>0.2299763661462464</v>
       </c>
       <c r="D20">
-        <v>0.6941882718165573</v>
+        <v>0.004611887746273524</v>
       </c>
       <c r="E20">
-        <v>0.01596154266820093</v>
+        <v>0.198406671372922</v>
       </c>
       <c r="F20">
-        <v>13.12985545821175</v>
+        <v>1.581143119885141</v>
       </c>
       <c r="G20">
-        <v>0.0006131402520406985</v>
+        <v>1.565564929735274</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7905663388416144</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.361779737415048</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.42917563171159</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.09255433278644176</v>
+        <v>0.2934851312027575</v>
       </c>
       <c r="M20">
-        <v>8.179878194523951</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.1747655587562562</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>4.928263009592683</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1665545648669706</v>
+        <v>0.2549673750297785</v>
       </c>
       <c r="D21">
-        <v>0.8824869930044201</v>
+        <v>0.004929367269891571</v>
       </c>
       <c r="E21">
-        <v>0.01536485634642615</v>
+        <v>0.2224884411332937</v>
       </c>
       <c r="F21">
-        <v>16.48300545607918</v>
+        <v>1.786036159939883</v>
       </c>
       <c r="G21">
-        <v>0.0005581413647223822</v>
+        <v>1.773594224093728</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.8825883483930568</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.534606711127054</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.31730637322909</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1105446441521352</v>
+        <v>0.3307745672828304</v>
       </c>
       <c r="M21">
-        <v>10.07325169206587</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.07389741597027921</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>5.562383270876524</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.190262975299504</v>
+        <v>0.2716832785896202</v>
       </c>
       <c r="D22">
-        <v>1.075459950150901</v>
+        <v>0.005136724771869439</v>
       </c>
       <c r="E22">
-        <v>0.015035295928298</v>
+        <v>0.2385875000029785</v>
       </c>
       <c r="F22">
-        <v>19.75026671269706</v>
+        <v>1.922652179774232</v>
       </c>
       <c r="G22">
-        <v>0.0005099307888097779</v>
+        <v>1.912280967375608</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.9441380764074552</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.64995878886576</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.99076299341044</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1271477201518891</v>
+        <v>0.3556990261844248</v>
       </c>
       <c r="M22">
-        <v>11.82926922416794</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.01973165589653725</v>
+        <v>12.95085643057945</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>5.985535403724668</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1763015947546904</v>
+        <v>0.2627242306232347</v>
       </c>
       <c r="D23">
-        <v>0.9610051939422135</v>
+        <v>0.005026047235626052</v>
       </c>
       <c r="E23">
-        <v>0.01519936692554991</v>
+        <v>0.2299596647532809</v>
       </c>
       <c r="F23">
-        <v>17.83130771581239</v>
+        <v>1.849470044805088</v>
       </c>
       <c r="G23">
-        <v>0.0005376897487957032</v>
+        <v>1.83799088970764</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.911149399306737</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.588156258596712</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.43580312936569</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1174848773923429</v>
+        <v>0.3423416942208064</v>
       </c>
       <c r="M23">
-        <v>10.80760170607647</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.04679733011277776</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>5.758829312923297</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1423755530461506</v>
+        <v>0.2295738423615177</v>
       </c>
       <c r="D24">
-        <v>0.6916802441145933</v>
+        <v>0.004606692499637077</v>
       </c>
       <c r="E24">
-        <v>0.01597165116956711</v>
+        <v>0.1980186110327224</v>
       </c>
       <c r="F24">
-        <v>13.08391863288631</v>
+        <v>1.577835658846666</v>
       </c>
       <c r="G24">
-        <v>0.0006139417272137404</v>
+        <v>1.56220638496157</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7890839977498274</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.358991748284367</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.38843455426561</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.09229909170616679</v>
+        <v>0.2928841387231813</v>
       </c>
       <c r="M24">
-        <v>8.153204075110835</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.1765199102384347</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4.918032048332861</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1194113257960652</v>
+        <v>0.1952327410633927</v>
       </c>
       <c r="D25">
-        <v>0.5138598917370985</v>
+        <v>0.004152137609406026</v>
       </c>
       <c r="E25">
-        <v>0.01687582033520796</v>
+        <v>0.1648782658388726</v>
       </c>
       <c r="F25">
-        <v>9.721378166963376</v>
+        <v>1.294595820467549</v>
       </c>
       <c r="G25">
-        <v>0.0006772599690830808</v>
+        <v>1.274503918027222</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6625688376487915</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.120484032371152</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.302533099515756</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07276121203166497</v>
+        <v>0.2415390221557772</v>
       </c>
       <c r="M25">
-        <v>6.136286918317808</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.3384100755445658</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>4.042553242357087</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1709351188852111</v>
+        <v>0.225969755229471</v>
       </c>
       <c r="D2">
-        <v>0.003814061620008857</v>
+        <v>0.006298024302926919</v>
       </c>
       <c r="E2">
-        <v>0.1413700081305613</v>
+        <v>0.1393848103014683</v>
       </c>
       <c r="F2">
-        <v>1.092556231293088</v>
+        <v>0.7533793398549165</v>
       </c>
       <c r="G2">
-        <v>1.06911709271381</v>
+        <v>0.6201500300061298</v>
       </c>
       <c r="H2">
-        <v>0.5729436093515687</v>
+        <v>0.6454766957521656</v>
       </c>
       <c r="I2">
-        <v>0.9506984879442655</v>
+        <v>0.7538371318557182</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2050779805360889</v>
+        <v>0.1684885293036018</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
-        <v>3.418947769698605</v>
+        <v>2.513635408739276</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1549815055693955</v>
+        <v>0.2233335232342313</v>
       </c>
       <c r="D3">
-        <v>0.003582277351110719</v>
+        <v>0.006197097785561212</v>
       </c>
       <c r="E3">
-        <v>0.125890144084245</v>
+        <v>0.1363420673065541</v>
       </c>
       <c r="F3">
-        <v>0.9588548390783416</v>
+        <v>0.7228535965416398</v>
       </c>
       <c r="G3">
-        <v>0.9330775771858413</v>
+        <v>0.5877630113456149</v>
       </c>
       <c r="H3">
-        <v>0.5140039008981319</v>
+        <v>0.6345060536392282</v>
       </c>
       <c r="I3">
-        <v>0.8385402002036528</v>
+        <v>0.7294046322488512</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1810387957057742</v>
+        <v>0.1634208008851701</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679454</v>
       </c>
       <c r="O3">
-        <v>3.00674792959876</v>
+        <v>2.42162939103568</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1454081563262122</v>
+        <v>0.221825637815698</v>
       </c>
       <c r="D4">
-        <v>0.003438507203252783</v>
+        <v>0.006133699267213188</v>
       </c>
       <c r="E4">
-        <v>0.1165769268940764</v>
+        <v>0.1345519741412922</v>
       </c>
       <c r="F4">
-        <v>0.8781009553847383</v>
+        <v>0.7045593754398993</v>
       </c>
       <c r="G4">
-        <v>0.8508445890337697</v>
+        <v>0.5682508425061883</v>
       </c>
       <c r="H4">
-        <v>0.4785831765966861</v>
+        <v>0.6281106818067173</v>
       </c>
       <c r="I4">
-        <v>0.7708910520997492</v>
+        <v>0.7148438111719386</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1665594289449857</v>
+        <v>0.1604095489491826</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375761</v>
       </c>
       <c r="O4">
-        <v>2.757996785443169</v>
+        <v>2.366627523460778</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1415585954766385</v>
+        <v>0.2212390354097806</v>
       </c>
       <c r="D5">
-        <v>0.003379538290921857</v>
+        <v>0.006107505335972263</v>
       </c>
       <c r="E5">
-        <v>0.1128255639766209</v>
+        <v>0.1338421385255373</v>
       </c>
       <c r="F5">
-        <v>0.8454956523573145</v>
+        <v>0.6972170454626365</v>
       </c>
       <c r="G5">
-        <v>0.8176243643207357</v>
+        <v>0.5603932113413777</v>
       </c>
       <c r="H5">
-        <v>0.4643258690010299</v>
+        <v>0.6255902006696346</v>
       </c>
       <c r="I5">
-        <v>0.7435996567593648</v>
+        <v>0.7090209246642019</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1607227222800631</v>
+        <v>0.1592076312726221</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>2.657610952523243</v>
+        <v>2.344588144831079</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1409223799854686</v>
+        <v>0.2211433145573523</v>
       </c>
       <c r="D6">
-        <v>0.003369723107089939</v>
+        <v>0.006103134226124851</v>
       </c>
       <c r="E6">
-        <v>0.1122051806006645</v>
+        <v>0.1337254568156716</v>
       </c>
       <c r="F6">
-        <v>0.8400988797749278</v>
+        <v>0.6960046614146194</v>
       </c>
       <c r="G6">
-        <v>0.8121247147698654</v>
+        <v>0.5590941131201674</v>
       </c>
       <c r="H6">
-        <v>0.4619686819667947</v>
+        <v>0.6251768526705348</v>
       </c>
       <c r="I6">
-        <v>0.7390837880514809</v>
+        <v>0.7080607263994665</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1597571997412359</v>
+        <v>0.1590095740485324</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>2.64099821998164</v>
+        <v>2.340951120064545</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1453560360488666</v>
+        <v>0.2218176138079286</v>
       </c>
       <c r="D7">
-        <v>0.003437713490933803</v>
+        <v>0.006133347457309313</v>
       </c>
       <c r="E7">
-        <v>0.1165261626541039</v>
+        <v>0.1345423215372392</v>
       </c>
       <c r="F7">
-        <v>0.8776600475179777</v>
+        <v>0.7044598979951644</v>
       </c>
       <c r="G7">
-        <v>0.850395438979902</v>
+        <v>0.5681444924857146</v>
       </c>
       <c r="H7">
-        <v>0.4783902020256932</v>
+        <v>0.6280763427505178</v>
       </c>
       <c r="I7">
-        <v>0.770521910490956</v>
+        <v>0.7147648333137866</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1664804636958976</v>
+        <v>0.1603932375217596</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851395496</v>
       </c>
       <c r="O7">
-        <v>2.756639109398975</v>
+        <v>2.366328777579895</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1653855607679162</v>
+        <v>0.2250378015565531</v>
       </c>
       <c r="D8">
-        <v>0.003734433481991317</v>
+        <v>0.006263521966417329</v>
       </c>
       <c r="E8">
-        <v>0.1359901327827764</v>
+        <v>0.1383194406000712</v>
       </c>
       <c r="F8">
-        <v>1.046156719155803</v>
+        <v>0.7427608516765218</v>
       </c>
       <c r="G8">
-        <v>1.021919643657156</v>
+        <v>0.6089053112631149</v>
       </c>
       <c r="H8">
-        <v>0.5524515347616727</v>
+        <v>0.6416233275604952</v>
       </c>
       <c r="I8">
-        <v>0.9117553289741807</v>
+        <v>0.7453212505271836</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1967267252728675</v>
+        <v>0.1667203203116685</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209654</v>
       </c>
       <c r="O8">
-        <v>3.27585215753794</v>
+        <v>2.481602170323981</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2066326205679303</v>
+        <v>0.2322312903143882</v>
       </c>
       <c r="D9">
-        <v>0.004305695732966797</v>
+        <v>0.006507425466280026</v>
       </c>
       <c r="E9">
-        <v>0.1758880622265551</v>
+        <v>0.1463477039678622</v>
       </c>
       <c r="F9">
-        <v>1.388875849308519</v>
+        <v>0.821439386749816</v>
       </c>
       <c r="G9">
-        <v>1.370292198255299</v>
+        <v>0.6918155861135062</v>
       </c>
       <c r="H9">
-        <v>0.7045809393086131</v>
+        <v>0.6708929033100617</v>
       </c>
       <c r="I9">
-        <v>1.199817415203015</v>
+        <v>0.8087480417135993</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.258602119047552</v>
+        <v>0.1799267614938174</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550789</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>4.333816412712679</v>
+        <v>2.719509808838893</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2384484531277025</v>
+        <v>0.2380526478987974</v>
       </c>
       <c r="D10">
-        <v>0.004720606671277494</v>
+        <v>0.006679668274898631</v>
       </c>
       <c r="E10">
-        <v>0.2065728304296499</v>
+        <v>0.1526272775549558</v>
       </c>
       <c r="F10">
-        <v>1.650699818044117</v>
+        <v>0.8814422773569959</v>
       </c>
       <c r="G10">
-        <v>1.636192068158209</v>
+        <v>0.7545720582328102</v>
       </c>
       <c r="H10">
-        <v>0.8217641182307034</v>
+        <v>0.6940505126206915</v>
       </c>
       <c r="I10">
-        <v>1.420425838628404</v>
+        <v>0.8575018524364708</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3061312707616821</v>
+        <v>0.1901217526643251</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>5.143461886391833</v>
+        <v>2.901595926180164</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2533264553397032</v>
+        <v>0.240817580780444</v>
       </c>
       <c r="D11">
-        <v>0.00490880889420886</v>
+        <v>0.006756512684612304</v>
       </c>
       <c r="E11">
-        <v>0.2209077807985906</v>
+        <v>0.1555673673806126</v>
       </c>
       <c r="F11">
-        <v>1.772608002735893</v>
+        <v>0.9092213429262728</v>
       </c>
       <c r="G11">
-        <v>1.759961884894921</v>
+        <v>0.7835277731552139</v>
       </c>
       <c r="H11">
-        <v>0.8765464521693787</v>
+        <v>0.7049457602524853</v>
       </c>
       <c r="I11">
-        <v>1.523273460825891</v>
+        <v>0.8801529968835524</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3283272794390797</v>
+        <v>0.1948677723271857</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>5.520805555314439</v>
+        <v>2.986031532157085</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2590254885832763</v>
+        <v>0.2418813775621942</v>
       </c>
       <c r="D12">
-        <v>0.004980048786542568</v>
+        <v>0.006785393981141752</v>
       </c>
       <c r="E12">
-        <v>0.2263972729833554</v>
+        <v>0.15669273642186</v>
       </c>
       <c r="F12">
-        <v>1.819231198819381</v>
+        <v>0.9198103212405329</v>
       </c>
       <c r="G12">
-        <v>1.807293423986323</v>
+        <v>0.7945514864979657</v>
       </c>
       <c r="H12">
-        <v>0.8975304249661065</v>
+        <v>0.709123415987591</v>
       </c>
       <c r="I12">
-        <v>1.562626836586759</v>
+        <v>0.888798581005787</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3368263772606923</v>
+        <v>0.1966806036692077</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>5.665176547468263</v>
+        <v>3.018236523349117</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2577950907653133</v>
+        <v>0.2416515239707735</v>
       </c>
       <c r="D13">
-        <v>0.004964706353920434</v>
+        <v>0.006779183587617865</v>
       </c>
       <c r="E13">
-        <v>0.225212173359111</v>
+        <v>0.156449833170214</v>
       </c>
       <c r="F13">
-        <v>1.809168685751686</v>
+        <v>0.9175266955689949</v>
       </c>
       <c r="G13">
-        <v>1.797078166361359</v>
+        <v>0.7921747134234352</v>
       </c>
       <c r="H13">
-        <v>0.8930000603237715</v>
+        <v>0.7082213766727534</v>
       </c>
       <c r="I13">
-        <v>1.554132443900784</v>
+        <v>0.8869335699643841</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3349915745275638</v>
+        <v>0.1962894826810668</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>5.634014830967544</v>
+        <v>3.011290318680267</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2537939729925682</v>
+        <v>0.2409047638335551</v>
       </c>
       <c r="D14">
-        <v>0.004914670086959561</v>
+        <v>0.006758893140659694</v>
       </c>
       <c r="E14">
-        <v>0.2213581362300516</v>
+        <v>0.1556597111588545</v>
       </c>
       <c r="F14">
-        <v>1.776434177667468</v>
+        <v>0.9100911079303842</v>
       </c>
       <c r="G14">
-        <v>1.763846253613451</v>
+        <v>0.7844335207503832</v>
       </c>
       <c r="H14">
-        <v>0.8782678608639003</v>
+        <v>0.7052884191755311</v>
       </c>
       <c r="I14">
-        <v>1.526502629036344</v>
+        <v>0.880862909143076</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3290245538638175</v>
+        <v>0.195016601795146</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>5.532652305708496</v>
+        <v>2.988676422814763</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2513518587741146</v>
+        <v>0.2404495360859329</v>
       </c>
       <c r="D15">
-        <v>0.004884019405063</v>
+        <v>0.006746436237797582</v>
       </c>
       <c r="E15">
-        <v>0.2190056120326531</v>
+        <v>0.1551773045706852</v>
       </c>
       <c r="F15">
-        <v>1.756444904128955</v>
+        <v>0.9055456700210982</v>
       </c>
       <c r="G15">
-        <v>1.743552819181019</v>
+        <v>0.7796994822956833</v>
       </c>
       <c r="H15">
-        <v>0.8692759441535429</v>
+        <v>0.7034986516532911</v>
       </c>
       <c r="I15">
-        <v>1.509633130535889</v>
+        <v>0.8771533240768434</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3253821702132598</v>
+        <v>0.194238960682469</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193664</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>5.470763102317733</v>
+        <v>2.974854862739619</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2374848579492692</v>
+        <v>0.2378743014693327</v>
       </c>
       <c r="D16">
-        <v>0.00470830033058256</v>
+        <v>0.00667461585382334</v>
       </c>
       <c r="E16">
-        <v>0.2056441674635963</v>
+        <v>0.1524368170122656</v>
       </c>
       <c r="F16">
-        <v>1.642793918534409</v>
+        <v>0.8796365894037876</v>
       </c>
       <c r="G16">
-        <v>1.628164848231364</v>
+        <v>0.75268795228871</v>
       </c>
       <c r="H16">
-        <v>0.8182158955463876</v>
+        <v>0.6933457404824992</v>
       </c>
       <c r="I16">
-        <v>1.413758722609458</v>
+        <v>0.8560310692201085</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3046932172293708</v>
+        <v>0.1898137718292361</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>5.118998371746443</v>
+        <v>2.896110169809958</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2290862670497376</v>
+        <v>0.2363243752458573</v>
       </c>
       <c r="D17">
-        <v>0.004600395802370372</v>
+        <v>0.006630169039141265</v>
       </c>
       <c r="E17">
-        <v>0.1975485458841604</v>
+        <v>0.1507770096440026</v>
       </c>
       <c r="F17">
-        <v>1.573829006475435</v>
+        <v>0.8638661227901281</v>
       </c>
       <c r="G17">
-        <v>1.558137825724543</v>
+        <v>0.7362217736790626</v>
       </c>
       <c r="H17">
-        <v>0.787288433135501</v>
+        <v>0.6872096428431007</v>
       </c>
       <c r="I17">
-        <v>1.355614465804663</v>
+        <v>0.8431944144987256</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.29215613923364</v>
+        <v>0.1871268257064287</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849064385</v>
       </c>
       <c r="O17">
-        <v>4.905638509983476</v>
+        <v>2.848213919115778</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2242932790345691</v>
+        <v>0.2354438902955138</v>
       </c>
       <c r="D18">
-        <v>0.004538277353905329</v>
+        <v>0.006604462358041019</v>
       </c>
       <c r="E18">
-        <v>0.1929271187225154</v>
+        <v>0.1498301889176332</v>
       </c>
       <c r="F18">
-        <v>1.534422406591119</v>
+        <v>0.8548408643002148</v>
       </c>
       <c r="G18">
-        <v>1.518120878991311</v>
+        <v>0.7267892042889059</v>
       </c>
       <c r="H18">
-        <v>0.7696368626401124</v>
+        <v>0.6837142764616715</v>
       </c>
       <c r="I18">
-        <v>1.322402777752828</v>
+        <v>0.8358556055237187</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.284998506487014</v>
+        <v>0.1855915530932606</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>4.783757936191535</v>
+        <v>2.820816185126262</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2226767249391486</v>
+        <v>0.2351476614824861</v>
       </c>
       <c r="D19">
-        <v>0.004517234371002488</v>
+        <v>0.006595734149865251</v>
       </c>
       <c r="E19">
-        <v>0.1913681830281959</v>
+        <v>0.149510960561912</v>
       </c>
       <c r="F19">
-        <v>1.521123070396499</v>
+        <v>0.8517928770304479</v>
       </c>
       <c r="G19">
-        <v>1.504614918570297</v>
+        <v>0.7236020768632443</v>
       </c>
       <c r="H19">
-        <v>0.7636831078197588</v>
+        <v>0.6825366375811655</v>
       </c>
       <c r="I19">
-        <v>1.311196188302091</v>
+        <v>0.8333784499686203</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2825838927331006</v>
+        <v>0.1850734844567654</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786363971</v>
       </c>
       <c r="O19">
-        <v>4.742630034449292</v>
+        <v>2.811565690694863</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2299763661462464</v>
+        <v>0.2364882300521032</v>
       </c>
       <c r="D20">
-        <v>0.004611887746273524</v>
+        <v>0.006634915186365831</v>
       </c>
       <c r="E20">
-        <v>0.198406671372922</v>
+        <v>0.1509528857280316</v>
       </c>
       <c r="F20">
-        <v>1.581143119885141</v>
+        <v>0.8655402061964423</v>
       </c>
       <c r="G20">
-        <v>1.565564929735274</v>
+        <v>0.7379706567757012</v>
       </c>
       <c r="H20">
-        <v>0.7905663388416144</v>
+        <v>0.6878593268105533</v>
       </c>
       <c r="I20">
-        <v>1.361779737415048</v>
+        <v>0.8445562924831762</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2934851312027575</v>
+        <v>0.1874118009699401</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.957806003281064</v>
       </c>
       <c r="O20">
-        <v>4.928263009592683</v>
+        <v>2.853296933605463</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2549673750297785</v>
+        <v>0.2411236501862817</v>
       </c>
       <c r="D21">
-        <v>0.004929367269891571</v>
+        <v>0.006764858860631051</v>
       </c>
       <c r="E21">
-        <v>0.2224884411332937</v>
+        <v>0.155891462772594</v>
       </c>
       <c r="F21">
-        <v>1.786036159939883</v>
+        <v>0.9122732289703777</v>
       </c>
       <c r="G21">
-        <v>1.773594224093728</v>
+        <v>0.7867056987996648</v>
       </c>
       <c r="H21">
-        <v>0.8825883483930568</v>
+        <v>0.7061484924561796</v>
       </c>
       <c r="I21">
-        <v>1.534606711127054</v>
+        <v>0.8826441607062492</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3307745672828304</v>
+        <v>0.1953900535503124</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571311</v>
       </c>
       <c r="O21">
-        <v>5.562383270876524</v>
+        <v>2.995312397728412</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2716832785896202</v>
+        <v>0.2442509461545654</v>
       </c>
       <c r="D22">
-        <v>0.005136724771869439</v>
+        <v>0.006848513405595114</v>
       </c>
       <c r="E22">
-        <v>0.2385875000029785</v>
+        <v>0.1591891827105982</v>
       </c>
       <c r="F22">
-        <v>1.922652179774232</v>
+        <v>0.9432219894342353</v>
       </c>
       <c r="G22">
-        <v>1.912280967375608</v>
+        <v>0.8188997715168114</v>
       </c>
       <c r="H22">
-        <v>0.9441380764074552</v>
+        <v>0.718403805864483</v>
       </c>
       <c r="I22">
-        <v>1.64995878886576</v>
+        <v>0.9079336965696427</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3556990261844248</v>
+        <v>0.2006953513016612</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.673791817957863</v>
       </c>
       <c r="O22">
-        <v>5.985535403724668</v>
+        <v>3.089474715421034</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2627242306232347</v>
+        <v>0.242572907183316</v>
       </c>
       <c r="D23">
-        <v>0.005026047235626052</v>
+        <v>0.006803982008188214</v>
       </c>
       <c r="E23">
-        <v>0.2299596647532809</v>
+        <v>0.1574227102323036</v>
       </c>
       <c r="F23">
-        <v>1.849470044805088</v>
+        <v>0.9266668589498721</v>
       </c>
       <c r="G23">
-        <v>1.83799088970764</v>
+        <v>0.8016857412671072</v>
       </c>
       <c r="H23">
-        <v>0.911149399306737</v>
+        <v>0.7118352587157233</v>
       </c>
       <c r="I23">
-        <v>1.588156258596712</v>
+        <v>0.8943998444289605</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3423416942208064</v>
+        <v>0.1978554671861161</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190005457</v>
       </c>
       <c r="O23">
-        <v>5.758829312923297</v>
+        <v>3.039095115121142</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2295738423615177</v>
+        <v>0.2364141183124815</v>
       </c>
       <c r="D24">
-        <v>0.004606692499637077</v>
+        <v>0.006632769930758897</v>
       </c>
       <c r="E24">
-        <v>0.1980186110327224</v>
+        <v>0.1508733490257868</v>
       </c>
       <c r="F24">
-        <v>1.577835658846666</v>
+        <v>0.8647832241589697</v>
       </c>
       <c r="G24">
-        <v>1.56220638496157</v>
+        <v>0.737179880661273</v>
       </c>
       <c r="H24">
-        <v>0.7890839977498274</v>
+        <v>0.6875655038883508</v>
       </c>
       <c r="I24">
-        <v>1.358991748284367</v>
+        <v>0.8439404592562028</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2928841387231813</v>
+        <v>0.1872829341031803</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>4.918032048332861</v>
+        <v>2.850998471484559</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1952327410633927</v>
+        <v>0.230191126109716</v>
       </c>
       <c r="D25">
-        <v>0.004152137609406026</v>
+        <v>0.006442662608707295</v>
       </c>
       <c r="E25">
-        <v>0.1648782658388726</v>
+        <v>0.1441090771026978</v>
       </c>
       <c r="F25">
-        <v>1.294595820467549</v>
+        <v>0.799770333363611</v>
       </c>
       <c r="G25">
-        <v>1.274503918027222</v>
+        <v>0.6690645539529783</v>
       </c>
       <c r="H25">
-        <v>0.6625688376487915</v>
+        <v>0.6626847321016385</v>
       </c>
       <c r="I25">
-        <v>1.120484032371152</v>
+        <v>0.7912123505931277</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2415390221557772</v>
+        <v>0.1762679991569343</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>4.042553242357087</v>
+        <v>2.653873203053706</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.225969755229471</v>
+        <v>0.1709351188850974</v>
       </c>
       <c r="D2">
-        <v>0.006298024302926919</v>
+        <v>0.003814061620117215</v>
       </c>
       <c r="E2">
-        <v>0.1393848103014683</v>
+        <v>0.1413700081305898</v>
       </c>
       <c r="F2">
-        <v>0.7533793398549165</v>
+        <v>1.092556231293102</v>
       </c>
       <c r="G2">
-        <v>0.6201500300061298</v>
+        <v>1.069117092713867</v>
       </c>
       <c r="H2">
-        <v>0.6454766957521656</v>
+        <v>0.5729436093516824</v>
       </c>
       <c r="I2">
-        <v>0.7538371318557182</v>
+        <v>0.9506984879442513</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1684885293036018</v>
+        <v>0.2050779805360605</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696344</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>2.513635408739276</v>
+        <v>3.418947769698605</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2233335232342313</v>
+        <v>0.1549815055691397</v>
       </c>
       <c r="D3">
-        <v>0.006197097785561212</v>
+        <v>0.003582277351025454</v>
       </c>
       <c r="E3">
-        <v>0.1363420673065541</v>
+        <v>0.1258901440842592</v>
       </c>
       <c r="F3">
-        <v>0.7228535965416398</v>
+        <v>0.9588548390783131</v>
       </c>
       <c r="G3">
-        <v>0.5877630113456149</v>
+        <v>0.9330775771858129</v>
       </c>
       <c r="H3">
-        <v>0.6345060536392282</v>
+        <v>0.5140039008981034</v>
       </c>
       <c r="I3">
-        <v>0.7294046322488512</v>
+        <v>0.8385402002036528</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1634208008851701</v>
+        <v>0.1810387957058097</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679454</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>2.42162939103568</v>
+        <v>3.006747929598674</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.221825637815698</v>
+        <v>0.1454081563264111</v>
       </c>
       <c r="D4">
-        <v>0.006133699267213188</v>
+        <v>0.003438507203368246</v>
       </c>
       <c r="E4">
-        <v>0.1345519741412922</v>
+        <v>0.1165769268940764</v>
       </c>
       <c r="F4">
-        <v>0.7045593754398993</v>
+        <v>0.8781009553847525</v>
       </c>
       <c r="G4">
-        <v>0.5682508425061883</v>
+        <v>0.8508445890338265</v>
       </c>
       <c r="H4">
-        <v>0.6281106818067173</v>
+        <v>0.4785831765965725</v>
       </c>
       <c r="I4">
-        <v>0.7148438111719386</v>
+        <v>0.7708910520997634</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1604095489491826</v>
+        <v>0.1665594289449643</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375761</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>2.366627523460778</v>
+        <v>2.757996785443169</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2212390354097806</v>
+        <v>0.1415585954767522</v>
       </c>
       <c r="D5">
-        <v>0.006107505335972263</v>
+        <v>0.003379538291099493</v>
       </c>
       <c r="E5">
-        <v>0.1338421385255373</v>
+        <v>0.1128255639766031</v>
       </c>
       <c r="F5">
-        <v>0.6972170454626365</v>
+        <v>0.8454956523573145</v>
       </c>
       <c r="G5">
-        <v>0.5603932113413777</v>
+        <v>0.8176243643207641</v>
       </c>
       <c r="H5">
-        <v>0.6255902006696346</v>
+        <v>0.4643258690010299</v>
       </c>
       <c r="I5">
-        <v>0.7090209246642019</v>
+        <v>0.7435996567593648</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1592076312726221</v>
+        <v>0.1607227222800631</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>2.344588144831079</v>
+        <v>2.657610952523243</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2211433145573523</v>
+        <v>0.1409223799852128</v>
       </c>
       <c r="D6">
-        <v>0.006103134226124851</v>
+        <v>0.003369723107089939</v>
       </c>
       <c r="E6">
-        <v>0.1337254568156716</v>
+        <v>0.1122051806006574</v>
       </c>
       <c r="F6">
-        <v>0.6960046614146194</v>
+        <v>0.840098879774942</v>
       </c>
       <c r="G6">
-        <v>0.5590941131201674</v>
+        <v>0.8121247147698654</v>
       </c>
       <c r="H6">
-        <v>0.6251768526705348</v>
+        <v>0.4619686819669084</v>
       </c>
       <c r="I6">
-        <v>0.7080607263994665</v>
+        <v>0.7390837880514738</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1590095740485324</v>
+        <v>0.1597571997411222</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>2.340951120064545</v>
+        <v>2.640998219981583</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2218176138079286</v>
+        <v>0.1453560360488808</v>
       </c>
       <c r="D7">
-        <v>0.006133347457309313</v>
+        <v>0.003437713490937355</v>
       </c>
       <c r="E7">
-        <v>0.1345423215372392</v>
+        <v>0.1165261626541039</v>
       </c>
       <c r="F7">
-        <v>0.7044598979951644</v>
+        <v>0.877660047517935</v>
       </c>
       <c r="G7">
-        <v>0.5681444924857146</v>
+        <v>0.8503954389799446</v>
       </c>
       <c r="H7">
-        <v>0.6280763427505178</v>
+        <v>0.4783902020256789</v>
       </c>
       <c r="I7">
-        <v>0.7147648333137866</v>
+        <v>0.7705219104909631</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1603932375217596</v>
+        <v>0.1664804636959545</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851395496</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>2.366328777579895</v>
+        <v>2.756639109398975</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2250378015565531</v>
+        <v>0.1653855607678878</v>
       </c>
       <c r="D8">
-        <v>0.006263521966417329</v>
+        <v>0.003734433482060595</v>
       </c>
       <c r="E8">
-        <v>0.1383194406000712</v>
+        <v>0.1359901327827941</v>
       </c>
       <c r="F8">
-        <v>0.7427608516765218</v>
+        <v>1.046156719155803</v>
       </c>
       <c r="G8">
-        <v>0.6089053112631149</v>
+        <v>1.021919643657057</v>
       </c>
       <c r="H8">
-        <v>0.6416233275604952</v>
+        <v>0.5524515347615591</v>
       </c>
       <c r="I8">
-        <v>0.7453212505271836</v>
+        <v>0.9117553289741807</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1667203203116685</v>
+        <v>0.1967267252728107</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209654</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>2.481602170323981</v>
+        <v>3.275852157537997</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2322312903143882</v>
+        <v>0.2066326205678166</v>
       </c>
       <c r="D9">
-        <v>0.006507425466280026</v>
+        <v>0.004305695733085813</v>
       </c>
       <c r="E9">
-        <v>0.1463477039678622</v>
+        <v>0.1758880622265266</v>
       </c>
       <c r="F9">
-        <v>0.821439386749816</v>
+        <v>1.388875849308505</v>
       </c>
       <c r="G9">
-        <v>0.6918155861135062</v>
+        <v>1.370292198255243</v>
       </c>
       <c r="H9">
-        <v>0.6708929033100617</v>
+        <v>0.7045809393086131</v>
       </c>
       <c r="I9">
-        <v>0.8087480417135993</v>
+        <v>1.199817415203015</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1799267614938174</v>
+        <v>0.2586021190474952</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
-        <v>2.719509808838893</v>
+        <v>4.333816412712736</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2380526478987974</v>
+        <v>0.2384484531277735</v>
       </c>
       <c r="D10">
-        <v>0.006679668274898631</v>
+        <v>0.004720606671277494</v>
       </c>
       <c r="E10">
-        <v>0.1526272775549558</v>
+        <v>0.2065728304296783</v>
       </c>
       <c r="F10">
-        <v>0.8814422773569959</v>
+        <v>1.650699818044117</v>
       </c>
       <c r="G10">
-        <v>0.7545720582328102</v>
+        <v>1.636192068158152</v>
       </c>
       <c r="H10">
-        <v>0.6940505126206915</v>
+        <v>0.8217641182305897</v>
       </c>
       <c r="I10">
-        <v>0.8575018524364708</v>
+        <v>1.420425838628404</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1901217526643251</v>
+        <v>0.3061312707617532</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837536</v>
       </c>
       <c r="O10">
-        <v>2.901595926180164</v>
+        <v>5.143461886391833</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.240817580780444</v>
+        <v>0.2533264553397032</v>
       </c>
       <c r="D11">
-        <v>0.006756512684612304</v>
+        <v>0.004908808894233729</v>
       </c>
       <c r="E11">
-        <v>0.1555673673806126</v>
+        <v>0.2209077807985906</v>
       </c>
       <c r="F11">
-        <v>0.9092213429262728</v>
+        <v>1.772608002735907</v>
       </c>
       <c r="G11">
-        <v>0.7835277731552139</v>
+        <v>1.759961884894921</v>
       </c>
       <c r="H11">
-        <v>0.7049457602524853</v>
+        <v>0.8765464521695208</v>
       </c>
       <c r="I11">
-        <v>0.8801529968835524</v>
+        <v>1.523273460825891</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1948677723271857</v>
+        <v>0.3283272794389944</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731763</v>
       </c>
       <c r="O11">
-        <v>2.986031532157085</v>
+        <v>5.520805555314439</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2418813775621942</v>
+        <v>0.259025488583319</v>
       </c>
       <c r="D12">
-        <v>0.006785393981141752</v>
+        <v>0.004980048786723756</v>
       </c>
       <c r="E12">
-        <v>0.15669273642186</v>
+        <v>0.2263972729833839</v>
       </c>
       <c r="F12">
-        <v>0.9198103212405329</v>
+        <v>1.819231198819381</v>
       </c>
       <c r="G12">
-        <v>0.7945514864979657</v>
+        <v>1.807293423986408</v>
       </c>
       <c r="H12">
-        <v>0.709123415987591</v>
+        <v>0.8975304249659928</v>
       </c>
       <c r="I12">
-        <v>0.888798581005787</v>
+        <v>1.562626836586759</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1966806036692077</v>
+        <v>0.336826377260607</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>3.018236523349117</v>
+        <v>5.665176547468377</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2416515239707735</v>
+        <v>0.2577950907653133</v>
       </c>
       <c r="D13">
-        <v>0.006779183587617865</v>
+        <v>0.004964706353916881</v>
       </c>
       <c r="E13">
-        <v>0.156449833170214</v>
+        <v>0.2252121733590897</v>
       </c>
       <c r="F13">
-        <v>0.9175266955689949</v>
+        <v>1.809168685751686</v>
       </c>
       <c r="G13">
-        <v>0.7921747134234352</v>
+        <v>1.797078166361388</v>
       </c>
       <c r="H13">
-        <v>0.7082213766727534</v>
+        <v>0.8930000603237715</v>
       </c>
       <c r="I13">
-        <v>0.8869335699643841</v>
+        <v>1.554132443900812</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1962894826810668</v>
+        <v>0.3349915745275069</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>3.011290318680267</v>
+        <v>5.634014830967544</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2409047638335551</v>
+        <v>0.2537939729927814</v>
       </c>
       <c r="D14">
-        <v>0.006758893140659694</v>
+        <v>0.00491467008684765</v>
       </c>
       <c r="E14">
-        <v>0.1556597111588545</v>
+        <v>0.2213581362299948</v>
       </c>
       <c r="F14">
-        <v>0.9100911079303842</v>
+        <v>1.776434177667454</v>
       </c>
       <c r="G14">
-        <v>0.7844335207503832</v>
+        <v>1.763846253613565</v>
       </c>
       <c r="H14">
-        <v>0.7052884191755311</v>
+        <v>0.8782678608638719</v>
       </c>
       <c r="I14">
-        <v>0.880862909143076</v>
+        <v>1.526502629036344</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.195016601795146</v>
+        <v>0.3290245538636611</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>2.988676422814763</v>
+        <v>5.532652305708552</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2404495360859329</v>
+        <v>0.2513518587741288</v>
       </c>
       <c r="D15">
-        <v>0.006746436237797582</v>
+        <v>0.004884019405059448</v>
       </c>
       <c r="E15">
-        <v>0.1551773045706852</v>
+        <v>0.2190056120326602</v>
       </c>
       <c r="F15">
-        <v>0.9055456700210982</v>
+        <v>1.756444904128941</v>
       </c>
       <c r="G15">
-        <v>0.7796994822956833</v>
+        <v>1.743552819181019</v>
       </c>
       <c r="H15">
-        <v>0.7034986516532911</v>
+        <v>0.8692759441534008</v>
       </c>
       <c r="I15">
-        <v>0.8771533240768434</v>
+        <v>1.509633130535903</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.194238960682469</v>
+        <v>0.3253821702133166</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193675</v>
       </c>
       <c r="O15">
-        <v>2.974854862739619</v>
+        <v>5.470763102317676</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2378743014693327</v>
+        <v>0.2374848579488571</v>
       </c>
       <c r="D16">
-        <v>0.00667461585382334</v>
+        <v>0.004708300330667825</v>
       </c>
       <c r="E16">
-        <v>0.1524368170122656</v>
+        <v>0.2056441674636318</v>
       </c>
       <c r="F16">
-        <v>0.8796365894037876</v>
+        <v>1.642793918534423</v>
       </c>
       <c r="G16">
-        <v>0.75268795228871</v>
+        <v>1.628164848231364</v>
       </c>
       <c r="H16">
-        <v>0.6933457404824992</v>
+        <v>0.8182158955465013</v>
       </c>
       <c r="I16">
-        <v>0.8560310692201085</v>
+        <v>1.413758722609472</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1898137718292361</v>
+        <v>0.3046932172293708</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>2.896110169809958</v>
+        <v>5.118998371746443</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2363243752458573</v>
+        <v>0.2290862670496949</v>
       </c>
       <c r="D17">
-        <v>0.006630169039141265</v>
+        <v>0.004600395802588864</v>
       </c>
       <c r="E17">
-        <v>0.1507770096440026</v>
+        <v>0.1975485458841817</v>
       </c>
       <c r="F17">
-        <v>0.8638661227901281</v>
+        <v>1.573829006475449</v>
       </c>
       <c r="G17">
-        <v>0.7362217736790626</v>
+        <v>1.558137825724543</v>
       </c>
       <c r="H17">
-        <v>0.6872096428431007</v>
+        <v>0.787288433135501</v>
       </c>
       <c r="I17">
-        <v>0.8431944144987256</v>
+        <v>1.355614465804678</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1871268257064287</v>
+        <v>0.2921561392336258</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849064385</v>
+        <v>10.80051555282944</v>
       </c>
       <c r="O17">
-        <v>2.848213919115778</v>
+        <v>4.905638509983476</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2354438902955138</v>
+        <v>0.2242932790347396</v>
       </c>
       <c r="D18">
-        <v>0.006604462358041019</v>
+        <v>0.004538277353711706</v>
       </c>
       <c r="E18">
-        <v>0.1498301889176332</v>
+        <v>0.192927118722487</v>
       </c>
       <c r="F18">
-        <v>0.8548408643002148</v>
+        <v>1.534422406591119</v>
       </c>
       <c r="G18">
-        <v>0.7267892042889059</v>
+        <v>1.518120878991368</v>
       </c>
       <c r="H18">
-        <v>0.6837142764616715</v>
+        <v>0.7696368626402261</v>
       </c>
       <c r="I18">
-        <v>0.8358556055237187</v>
+        <v>1.322402777752828</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1855915530932606</v>
+        <v>0.2849985064870708</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.55149949033301</v>
       </c>
       <c r="O18">
-        <v>2.820816185126262</v>
+        <v>4.783757936191535</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2351476614824861</v>
+        <v>0.222676724939177</v>
       </c>
       <c r="D19">
-        <v>0.006595734149865251</v>
+        <v>0.004517234370892353</v>
       </c>
       <c r="E19">
-        <v>0.149510960561912</v>
+        <v>0.1913681830281959</v>
       </c>
       <c r="F19">
-        <v>0.8517928770304479</v>
+        <v>1.521123070396499</v>
       </c>
       <c r="G19">
-        <v>0.7236020768632443</v>
+        <v>1.504614918570326</v>
       </c>
       <c r="H19">
-        <v>0.6825366375811655</v>
+        <v>0.7636831078196451</v>
       </c>
       <c r="I19">
-        <v>0.8333784499686203</v>
+        <v>1.311196188302063</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1850734844567654</v>
+        <v>0.2825838927332143</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786363971</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>2.811565690694863</v>
+        <v>4.742630034449292</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2364882300521032</v>
+        <v>0.2299763661460332</v>
       </c>
       <c r="D20">
-        <v>0.006634915186365831</v>
+        <v>0.004611887746273524</v>
       </c>
       <c r="E20">
-        <v>0.1509528857280316</v>
+        <v>0.1984066713729504</v>
       </c>
       <c r="F20">
-        <v>0.8655402061964423</v>
+        <v>1.581143119885141</v>
       </c>
       <c r="G20">
-        <v>0.7379706567757012</v>
+        <v>1.565564929735189</v>
       </c>
       <c r="H20">
-        <v>0.6878593268105533</v>
+        <v>0.7905663388414723</v>
       </c>
       <c r="I20">
-        <v>0.8445562924831762</v>
+        <v>1.361779737415034</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1874118009699401</v>
+        <v>0.2934851312027149</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.957806003281064</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>2.853296933605463</v>
+        <v>4.928263009592627</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2411236501862817</v>
+        <v>0.2549673750299206</v>
       </c>
       <c r="D21">
-        <v>0.006764858860631051</v>
+        <v>0.00492936726991644</v>
       </c>
       <c r="E21">
-        <v>0.155891462772594</v>
+        <v>0.2224884411333079</v>
       </c>
       <c r="F21">
-        <v>0.9122732289703777</v>
+        <v>1.786036159939854</v>
       </c>
       <c r="G21">
-        <v>0.7867056987996648</v>
+        <v>1.773594224093785</v>
       </c>
       <c r="H21">
-        <v>0.7061484924561796</v>
+        <v>0.8825883483930568</v>
       </c>
       <c r="I21">
-        <v>0.8826441607062492</v>
+        <v>1.534606711127068</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1953900535503124</v>
+        <v>0.3307745672827451</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571311</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>2.995312397728412</v>
+        <v>5.562383270876524</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2442509461545654</v>
+        <v>0.2716832785898333</v>
       </c>
       <c r="D22">
-        <v>0.006848513405595114</v>
+        <v>0.005136724771867662</v>
       </c>
       <c r="E22">
-        <v>0.1591891827105982</v>
+        <v>0.2385875000029856</v>
       </c>
       <c r="F22">
-        <v>0.9432219894342353</v>
+        <v>1.922652179774218</v>
       </c>
       <c r="G22">
-        <v>0.8188997715168114</v>
+        <v>1.912280967375608</v>
       </c>
       <c r="H22">
-        <v>0.718403805864483</v>
+        <v>0.9441380764073131</v>
       </c>
       <c r="I22">
-        <v>0.9079336965696427</v>
+        <v>1.649958788865774</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2006953513016612</v>
+        <v>0.3556990261844533</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.673791817957863</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>3.089474715421034</v>
+        <v>5.985535403724725</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.242572907183316</v>
+        <v>0.2627242306233342</v>
       </c>
       <c r="D23">
-        <v>0.006803982008188214</v>
+        <v>0.005026047235627829</v>
       </c>
       <c r="E23">
-        <v>0.1574227102323036</v>
+        <v>0.229959664753288</v>
       </c>
       <c r="F23">
-        <v>0.9266668589498721</v>
+        <v>1.849470044805088</v>
       </c>
       <c r="G23">
-        <v>0.8016857412671072</v>
+        <v>1.83799088970764</v>
       </c>
       <c r="H23">
-        <v>0.7118352587157233</v>
+        <v>0.911149399306737</v>
       </c>
       <c r="I23">
-        <v>0.8943998444289605</v>
+        <v>1.588156258596712</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1978554671861161</v>
+        <v>0.3423416942208206</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190005457</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>3.039095115121142</v>
+        <v>5.75882931292324</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2364141183124815</v>
+        <v>0.2295738423615177</v>
       </c>
       <c r="D24">
-        <v>0.006632769930758897</v>
+        <v>0.004606692499724119</v>
       </c>
       <c r="E24">
-        <v>0.1508733490257868</v>
+        <v>0.1980186110327224</v>
       </c>
       <c r="F24">
-        <v>0.8647832241589697</v>
+        <v>1.577835658846666</v>
       </c>
       <c r="G24">
-        <v>0.737179880661273</v>
+        <v>1.562206384961598</v>
       </c>
       <c r="H24">
-        <v>0.6875655038883508</v>
+        <v>0.7890839977498274</v>
       </c>
       <c r="I24">
-        <v>0.8439404592562028</v>
+        <v>1.358991748284382</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1872829341031803</v>
+        <v>0.2928841387231813</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>2.850998471484559</v>
+        <v>4.918032048332748</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.230191126109716</v>
+        <v>0.1952327410634211</v>
       </c>
       <c r="D25">
-        <v>0.006442662608707295</v>
+        <v>0.004152137609251483</v>
       </c>
       <c r="E25">
-        <v>0.1441090771026978</v>
+        <v>0.1648782658388797</v>
       </c>
       <c r="F25">
-        <v>0.799770333363611</v>
+        <v>1.294595820467521</v>
       </c>
       <c r="G25">
-        <v>0.6690645539529783</v>
+        <v>1.27450391802725</v>
       </c>
       <c r="H25">
-        <v>0.6626847321016385</v>
+        <v>0.6625688376489052</v>
       </c>
       <c r="I25">
-        <v>0.7912123505931277</v>
+        <v>1.120484032371152</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1762679991569343</v>
+        <v>0.2415390221557772</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>2.653873203053706</v>
+        <v>4.042553242357087</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1709351188850974</v>
+        <v>0.140275333460238</v>
       </c>
       <c r="D2">
-        <v>0.003814061620117215</v>
+        <v>0.0455738601579192</v>
       </c>
       <c r="E2">
-        <v>0.1413700081305898</v>
+        <v>0.07437012211710581</v>
       </c>
       <c r="F2">
-        <v>1.092556231293102</v>
+        <v>0.9675567557141562</v>
       </c>
       <c r="G2">
-        <v>1.069117092713867</v>
+        <v>0.9058680425890486</v>
       </c>
       <c r="H2">
-        <v>0.5729436093516824</v>
+        <v>0.001429831587799191</v>
       </c>
       <c r="I2">
-        <v>0.9506984879442513</v>
+        <v>0.0005997772430319515</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6105786123865187</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8670550017723286</v>
       </c>
       <c r="L2">
-        <v>0.2050779805360605</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.056339965971461</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>0.07923641167594297</v>
       </c>
       <c r="O2">
-        <v>3.418947769698605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6936037676444187</v>
+      </c>
+      <c r="P2">
+        <v>0.8735392806092825</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1549815055691397</v>
+        <v>0.126044230823311</v>
       </c>
       <c r="D3">
-        <v>0.003582277351025454</v>
+        <v>0.04348436817893742</v>
       </c>
       <c r="E3">
-        <v>0.1258901440842592</v>
+        <v>0.06764478450878819</v>
       </c>
       <c r="F3">
-        <v>0.9588548390783131</v>
+        <v>0.8964213156601062</v>
       </c>
       <c r="G3">
-        <v>0.9330775771858129</v>
+        <v>0.8405378839356956</v>
       </c>
       <c r="H3">
-        <v>0.5140039008981034</v>
+        <v>0.002832717589242417</v>
       </c>
       <c r="I3">
-        <v>0.8385402002036528</v>
+        <v>0.001346688002808794</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5844620627912889</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8106546035113169</v>
       </c>
       <c r="L3">
-        <v>0.1810387957058097</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.659198518738151</v>
       </c>
       <c r="N3">
-        <v>6.749683652115209</v>
+        <v>0.07278487866898331</v>
       </c>
       <c r="O3">
-        <v>3.006747929598674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6060272329440792</v>
+      </c>
+      <c r="P3">
+        <v>0.9007887533509162</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1454081563264111</v>
+        <v>0.1171802116310445</v>
       </c>
       <c r="D4">
-        <v>0.003438507203368246</v>
+        <v>0.04218453198112471</v>
       </c>
       <c r="E4">
-        <v>0.1165769268940764</v>
+        <v>0.06348997509462606</v>
       </c>
       <c r="F4">
-        <v>0.8781009553847525</v>
+        <v>0.8533894073466826</v>
       </c>
       <c r="G4">
-        <v>0.8508445890338265</v>
+        <v>0.8009698846595796</v>
       </c>
       <c r="H4">
-        <v>0.4785831765965725</v>
+        <v>0.003971232160624671</v>
       </c>
       <c r="I4">
-        <v>0.7708910520997634</v>
+        <v>0.002185426928247747</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.56878283280858</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7762248505253098</v>
       </c>
       <c r="L4">
-        <v>0.1665594289449643</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.415014839569722</v>
       </c>
       <c r="N4">
-        <v>6.187481969422947</v>
+        <v>0.06883452630242104</v>
       </c>
       <c r="O4">
-        <v>2.757996785443169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5521396850830058</v>
+      </c>
+      <c r="P4">
+        <v>0.9182058073798416</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1415585954767522</v>
+        <v>0.1131949473830645</v>
       </c>
       <c r="D5">
-        <v>0.003379538291099493</v>
+        <v>0.04168421518351195</v>
       </c>
       <c r="E5">
-        <v>0.1128255639766031</v>
+        <v>0.06173724872607522</v>
       </c>
       <c r="F5">
-        <v>0.8454956523573145</v>
+        <v>0.8351532729444671</v>
       </c>
       <c r="G5">
-        <v>0.8176243643207641</v>
+        <v>0.7840169017545833</v>
       </c>
       <c r="H5">
-        <v>0.4643258690010299</v>
+        <v>0.00450624105982278</v>
       </c>
       <c r="I5">
-        <v>0.7435996567593648</v>
+        <v>0.002694095732112434</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5619963657359648</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7612459262298117</v>
       </c>
       <c r="L5">
-        <v>0.1607227222800631</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.314143007269053</v>
       </c>
       <c r="N5">
-        <v>5.958052239810399</v>
+        <v>0.06727578337303086</v>
       </c>
       <c r="O5">
-        <v>2.657610952523243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5297753251690267</v>
+      </c>
+      <c r="P5">
+        <v>0.9256000444112154</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1409223799852128</v>
+        <v>0.1121166907465607</v>
       </c>
       <c r="D6">
-        <v>0.003369723107089939</v>
+        <v>0.04164234150634272</v>
       </c>
       <c r="E6">
-        <v>0.1122051806006574</v>
+        <v>0.0613818647358908</v>
       </c>
       <c r="F6">
-        <v>0.840098879774942</v>
+        <v>0.8310959309021086</v>
       </c>
       <c r="G6">
-        <v>0.8121247147698654</v>
+        <v>0.7800445390464859</v>
       </c>
       <c r="H6">
-        <v>0.4619686819669084</v>
+        <v>0.004604762316210209</v>
       </c>
       <c r="I6">
-        <v>0.7390837880514738</v>
+        <v>0.002884109432899074</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5602867099923543</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7575492596661775</v>
       </c>
       <c r="L6">
-        <v>0.1597571997411222</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.29584481384336</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>0.067077806784404</v>
       </c>
       <c r="O6">
-        <v>2.640998219981583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5256049452635025</v>
+      </c>
+      <c r="P6">
+        <v>0.9269983078230055</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1453560360488808</v>
+        <v>0.1159891870082461</v>
       </c>
       <c r="D7">
-        <v>0.003437713490937355</v>
+        <v>0.04229179650415205</v>
       </c>
       <c r="E7">
-        <v>0.1165261626541039</v>
+        <v>0.06329155175263601</v>
       </c>
       <c r="F7">
-        <v>0.877660047517935</v>
+        <v>0.8503035527255633</v>
       </c>
       <c r="G7">
-        <v>0.8503954389799446</v>
+        <v>0.7975547805153695</v>
       </c>
       <c r="H7">
-        <v>0.4783902020256789</v>
+        <v>0.003992514680563608</v>
       </c>
       <c r="I7">
-        <v>0.7705219104909631</v>
+        <v>0.002447332302088157</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.567084703176036</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7727066897481336</v>
       </c>
       <c r="L7">
-        <v>0.1664804636959545</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.409426353449561</v>
       </c>
       <c r="N7">
-        <v>6.184389112219662</v>
+        <v>0.0689799985916153</v>
       </c>
       <c r="O7">
-        <v>2.756639109398975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5505916135910383</v>
+      </c>
+      <c r="P7">
+        <v>0.9187585286960029</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1653855607678878</v>
+        <v>0.1338717632836648</v>
       </c>
       <c r="D8">
-        <v>0.003734433482060595</v>
+        <v>0.04501141235446937</v>
       </c>
       <c r="E8">
-        <v>0.1359901327827941</v>
+        <v>0.07182304111685234</v>
       </c>
       <c r="F8">
-        <v>1.046156719155803</v>
+        <v>0.9391102205752162</v>
       </c>
       <c r="G8">
-        <v>1.021919643657057</v>
+        <v>0.8789834450936809</v>
       </c>
       <c r="H8">
-        <v>0.5524515347615591</v>
+        <v>0.001866471944197423</v>
       </c>
       <c r="I8">
-        <v>0.9117553289741807</v>
+        <v>0.001071323396245383</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5993658882273394</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8431513707572407</v>
       </c>
       <c r="L8">
-        <v>0.1967267252728107</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.91378879413196</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>0.07723185392099907</v>
       </c>
       <c r="O8">
-        <v>3.275852157537997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6617586238220454</v>
+      </c>
+      <c r="P8">
+        <v>0.8834576846121145</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2066326205678166</v>
+        <v>0.1700878876947343</v>
       </c>
       <c r="D9">
-        <v>0.004305695733085813</v>
+        <v>0.05000561161594419</v>
       </c>
       <c r="E9">
-        <v>0.1758880622265266</v>
+        <v>0.08871444234644343</v>
       </c>
       <c r="F9">
-        <v>1.388875849308505</v>
+        <v>1.124175661629494</v>
       </c>
       <c r="G9">
-        <v>1.370292198255243</v>
+        <v>1.04937965085179</v>
       </c>
       <c r="H9">
-        <v>0.7045809393086131</v>
+        <v>4.08821033381912E-05</v>
       </c>
       <c r="I9">
-        <v>1.199817415203015</v>
+        <v>0.001244231172631949</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6686748238110169</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9892322445288713</v>
       </c>
       <c r="L9">
-        <v>0.2586021190474952</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.908925122421181</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>0.09325569152230884</v>
       </c>
       <c r="O9">
-        <v>4.333816412712736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8813261010908491</v>
+      </c>
+      <c r="P9">
+        <v>0.8189999967340462</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2384484531277735</v>
+        <v>0.1920517505359243</v>
       </c>
       <c r="D10">
-        <v>0.004720606671277494</v>
+        <v>0.05426725202383409</v>
       </c>
       <c r="E10">
-        <v>0.2065728304296783</v>
+        <v>0.09704503994909786</v>
       </c>
       <c r="F10">
-        <v>1.650699818044117</v>
+        <v>1.249521655749362</v>
       </c>
       <c r="G10">
-        <v>1.636192068158152</v>
+        <v>1.161572170992983</v>
       </c>
       <c r="H10">
-        <v>0.8217641182305897</v>
+        <v>0.0005026586658880561</v>
       </c>
       <c r="I10">
-        <v>1.420425838628404</v>
+        <v>0.003710525265864462</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7134597720853719</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.082092037446202</v>
       </c>
       <c r="L10">
-        <v>0.3061312707617532</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.621821391756498</v>
       </c>
       <c r="N10">
-        <v>11.28258838837536</v>
+        <v>0.09941741338383991</v>
       </c>
       <c r="O10">
-        <v>5.143461886391833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.026939044883989</v>
+      </c>
+      <c r="P10">
+        <v>0.7792403252242153</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2533264553397032</v>
+        <v>0.1703948474069108</v>
       </c>
       <c r="D11">
-        <v>0.004908808894233729</v>
+        <v>0.06233614409611477</v>
       </c>
       <c r="E11">
-        <v>0.2209077807985906</v>
+        <v>0.07123185536643462</v>
       </c>
       <c r="F11">
-        <v>1.772608002735907</v>
+        <v>1.184838042310631</v>
       </c>
       <c r="G11">
-        <v>1.759961884894921</v>
+        <v>1.076884732637993</v>
       </c>
       <c r="H11">
-        <v>0.8765464521695208</v>
+        <v>0.01908104952269696</v>
       </c>
       <c r="I11">
-        <v>1.523273460825891</v>
+        <v>0.005021490757639135</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6660984032688475</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9954400916955919</v>
       </c>
       <c r="L11">
-        <v>0.3283272794389944</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.792531238155334</v>
       </c>
       <c r="N11">
-        <v>12.03742316731763</v>
+        <v>0.06304749515173924</v>
       </c>
       <c r="O11">
-        <v>5.520805555314439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.962853281405927</v>
+      </c>
+      <c r="P11">
+        <v>0.800176649984202</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.259025488583319</v>
+        <v>0.1513635236326394</v>
       </c>
       <c r="D12">
-        <v>0.004980048786723756</v>
+        <v>0.06892788257415106</v>
       </c>
       <c r="E12">
-        <v>0.2263972729833839</v>
+        <v>0.05475882137354304</v>
       </c>
       <c r="F12">
-        <v>1.819231198819381</v>
+        <v>1.10885674449456</v>
       </c>
       <c r="G12">
-        <v>1.807293423986408</v>
+        <v>0.9886687792640885</v>
       </c>
       <c r="H12">
-        <v>0.8975304249659928</v>
+        <v>0.0576699104956333</v>
       </c>
       <c r="I12">
-        <v>1.562626836586759</v>
+        <v>0.005103274803834879</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6199237855106219</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9104065701083002</v>
       </c>
       <c r="L12">
-        <v>0.336826377260607</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.790274249063259</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>0.04660319073980457</v>
       </c>
       <c r="O12">
-        <v>5.665176547468377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.8821595456919056</v>
+      </c>
+      <c r="P12">
+        <v>0.8334807249640406</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2577950907653133</v>
+        <v>0.1315550413868678</v>
       </c>
       <c r="D13">
-        <v>0.004964706353916881</v>
+        <v>0.07486112404104972</v>
       </c>
       <c r="E13">
-        <v>0.2252121733590897</v>
+        <v>0.04423185040365674</v>
       </c>
       <c r="F13">
-        <v>1.809168685751686</v>
+        <v>1.01532686637465</v>
       </c>
       <c r="G13">
-        <v>1.797078166361388</v>
+        <v>0.8877232381322102</v>
       </c>
       <c r="H13">
-        <v>0.8930000603237715</v>
+        <v>0.1132634526709211</v>
       </c>
       <c r="I13">
-        <v>1.554132443900812</v>
+        <v>0.004530522029871697</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5694728024321734</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8167226653542059</v>
       </c>
       <c r="L13">
-        <v>0.3349915745275069</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.647895491644704</v>
       </c>
       <c r="N13">
-        <v>12.26155457991871</v>
+        <v>0.04458695344880681</v>
       </c>
       <c r="O13">
-        <v>5.634014830967544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7827113479370951</v>
+      </c>
+      <c r="P13">
+        <v>0.8777482631350111</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2537939729927814</v>
+        <v>0.1175385966274831</v>
       </c>
       <c r="D14">
-        <v>0.00491467008684765</v>
+        <v>0.0788241716491882</v>
       </c>
       <c r="E14">
-        <v>0.2213581362299948</v>
+        <v>0.04047885215854541</v>
       </c>
       <c r="F14">
-        <v>1.776434177667454</v>
+        <v>0.9419190135811562</v>
       </c>
       <c r="G14">
-        <v>1.763846253613565</v>
+        <v>0.8114612626255848</v>
       </c>
       <c r="H14">
-        <v>0.8782678608638719</v>
+        <v>0.1625011485431429</v>
       </c>
       <c r="I14">
-        <v>1.526502629036344</v>
+        <v>0.003962406247389083</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5322491091252317</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7473658923701549</v>
       </c>
       <c r="L14">
-        <v>0.3290245538636611</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.484163162981872</v>
       </c>
       <c r="N14">
-        <v>12.06092695796548</v>
+        <v>0.05166863129257138</v>
       </c>
       <c r="O14">
-        <v>5.532652305708552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.7053396473894864</v>
+      </c>
+      <c r="P14">
+        <v>0.9144900051549314</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2513518587741288</v>
+        <v>0.1134776012982712</v>
       </c>
       <c r="D15">
-        <v>0.004884019405059448</v>
+        <v>0.07959987541880764</v>
       </c>
       <c r="E15">
-        <v>0.2190056120326602</v>
+        <v>0.03994695387042002</v>
       </c>
       <c r="F15">
-        <v>1.756444904128941</v>
+        <v>0.9194023440438883</v>
       </c>
       <c r="G15">
-        <v>1.743552819181019</v>
+        <v>0.7890522077425146</v>
       </c>
       <c r="H15">
-        <v>0.8692759441534008</v>
+        <v>0.1749712123755955</v>
       </c>
       <c r="I15">
-        <v>1.509633130535903</v>
+        <v>0.003810172391487399</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5217275445894956</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7274209091401005</v>
       </c>
       <c r="L15">
-        <v>0.3253821702133166</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.413307694975686</v>
       </c>
       <c r="N15">
-        <v>11.93801081193675</v>
+        <v>0.05431165729195087</v>
       </c>
       <c r="O15">
-        <v>5.470763102317676</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6820157643114442</v>
+      </c>
+      <c r="P15">
+        <v>0.9250324851153806</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2374848579488571</v>
+        <v>0.1081859875982403</v>
       </c>
       <c r="D16">
-        <v>0.004708300330667825</v>
+        <v>0.07640429445097396</v>
       </c>
       <c r="E16">
-        <v>0.2056441674636318</v>
+        <v>0.03878731376379285</v>
       </c>
       <c r="F16">
-        <v>1.642793918534423</v>
+        <v>0.8839955358685643</v>
       </c>
       <c r="G16">
-        <v>1.628164848231364</v>
+        <v>0.7609870988935654</v>
       </c>
       <c r="H16">
-        <v>0.8182158955465013</v>
+        <v>0.1621066253500345</v>
       </c>
       <c r="I16">
-        <v>1.413758722609472</v>
+        <v>0.002889642843520335</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5123309419446826</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7064579394909458</v>
       </c>
       <c r="L16">
-        <v>0.3046932172293708</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.135766032255958</v>
       </c>
       <c r="N16">
-        <v>11.23323027560713</v>
+        <v>0.05206378837620562</v>
       </c>
       <c r="O16">
-        <v>5.118998371746443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.6420226370681021</v>
+      </c>
+      <c r="P16">
+        <v>0.9296522782789651</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2290862670496949</v>
+        <v>0.111175700963976</v>
       </c>
       <c r="D17">
-        <v>0.004600395802588864</v>
+        <v>0.07182698517718933</v>
       </c>
       <c r="E17">
-        <v>0.1975485458841817</v>
+        <v>0.03921077057342348</v>
       </c>
       <c r="F17">
-        <v>1.573829006475449</v>
+        <v>0.8955029124849432</v>
       </c>
       <c r="G17">
-        <v>1.558137825724543</v>
+        <v>0.7794324908669381</v>
       </c>
       <c r="H17">
-        <v>0.787288433135501</v>
+        <v>0.1243066576753336</v>
       </c>
       <c r="I17">
-        <v>1.355614465804678</v>
+        <v>0.00253909398361607</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5246929424883149</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7265500575277883</v>
       </c>
       <c r="L17">
-        <v>0.2921561392336258</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.009695808793651</v>
       </c>
       <c r="N17">
-        <v>10.80051555282944</v>
+        <v>0.04524370744085005</v>
       </c>
       <c r="O17">
-        <v>4.905638509983476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6516208657783622</v>
+      </c>
+      <c r="P17">
+        <v>0.9138210308710484</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2242932790347396</v>
+        <v>0.1233694687972928</v>
       </c>
       <c r="D18">
-        <v>0.004538277353711706</v>
+        <v>0.06576711758354037</v>
       </c>
       <c r="E18">
-        <v>0.192927118722487</v>
+        <v>0.04442680010760824</v>
       </c>
       <c r="F18">
-        <v>1.534422406591119</v>
+        <v>0.9513628685702002</v>
       </c>
       <c r="G18">
-        <v>1.518120878991368</v>
+        <v>0.8435576223786683</v>
       </c>
       <c r="H18">
-        <v>0.7696368626402261</v>
+        <v>0.07147203017743209</v>
       </c>
       <c r="I18">
-        <v>1.322402777752828</v>
+        <v>0.002240309087412129</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5588677681192706</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7881719449930529</v>
       </c>
       <c r="L18">
-        <v>0.2849985064870708</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.002012736103893</v>
       </c>
       <c r="N18">
-        <v>10.55149949033301</v>
+        <v>0.04137892544244925</v>
       </c>
       <c r="O18">
-        <v>4.783757936191535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7074105413636786</v>
+      </c>
+      <c r="P18">
+        <v>0.8811987157085213</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.222676724939177</v>
+        <v>0.1423774812026082</v>
       </c>
       <c r="D19">
-        <v>0.004517234370892353</v>
+        <v>0.05983278163994754</v>
       </c>
       <c r="E19">
-        <v>0.1913681830281959</v>
+        <v>0.05803295700976463</v>
       </c>
       <c r="F19">
-        <v>1.521123070396499</v>
+        <v>1.035761342419278</v>
       </c>
       <c r="G19">
-        <v>1.504614918570326</v>
+        <v>0.9373312996150815</v>
       </c>
       <c r="H19">
-        <v>0.7636831078196451</v>
+        <v>0.02621016340221161</v>
       </c>
       <c r="I19">
-        <v>1.311196188302063</v>
+        <v>0.002500014287036834</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6067037349144044</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8764284315263851</v>
       </c>
       <c r="L19">
-        <v>0.2825838927332143</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.081602780963635</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>0.05140677317630882</v>
       </c>
       <c r="O19">
-        <v>4.742630034449292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.797167000424281</v>
+      </c>
+      <c r="P19">
+        <v>0.8446888361466875</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2299763661460332</v>
+        <v>0.1825623419987039</v>
       </c>
       <c r="D20">
-        <v>0.004611887746273524</v>
+        <v>0.05356719732197135</v>
       </c>
       <c r="E20">
-        <v>0.1984066713729504</v>
+        <v>0.09414360611314621</v>
       </c>
       <c r="F20">
-        <v>1.581143119885141</v>
+        <v>1.206727066537127</v>
       </c>
       <c r="G20">
-        <v>1.565564929735189</v>
+        <v>1.121123610924016</v>
       </c>
       <c r="H20">
-        <v>0.7905663388414723</v>
+        <v>0.0002418705064020088</v>
       </c>
       <c r="I20">
-        <v>1.361779737415034</v>
+        <v>0.00359196486381741</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6961832925736786</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.046526683462915</v>
       </c>
       <c r="L20">
-        <v>0.2934851312027149</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.420092990234025</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>0.09804981142438862</v>
       </c>
       <c r="O20">
-        <v>4.928263009592627</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9840786872369591</v>
+      </c>
+      <c r="P20">
+        <v>0.7914760087384707</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2549673750299206</v>
+        <v>0.2056553503289535</v>
       </c>
       <c r="D21">
-        <v>0.00492936726991644</v>
+        <v>0.05580673302767636</v>
       </c>
       <c r="E21">
-        <v>0.2224884411333079</v>
+        <v>0.1067915389905423</v>
       </c>
       <c r="F21">
-        <v>1.786036159939854</v>
+        <v>1.327764147407152</v>
       </c>
       <c r="G21">
-        <v>1.773594224093785</v>
+        <v>1.234668830477119</v>
       </c>
       <c r="H21">
-        <v>0.8825883483930568</v>
+        <v>0.000988238454413759</v>
       </c>
       <c r="I21">
-        <v>1.534606711127068</v>
+        <v>0.006244000482817036</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.744354242072319</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.143187703404493</v>
       </c>
       <c r="L21">
-        <v>0.3307745672827451</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.996369438627482</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>0.1118547742729419</v>
       </c>
       <c r="O21">
-        <v>5.562383270876524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.119815816109764</v>
+      </c>
+      <c r="P21">
+        <v>0.7566754235364357</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2716832785898333</v>
+        <v>0.220413103335261</v>
       </c>
       <c r="D22">
-        <v>0.005136724771867662</v>
+        <v>0.05740480413992444</v>
       </c>
       <c r="E22">
-        <v>0.2385875000029856</v>
+        <v>0.1132978177196691</v>
       </c>
       <c r="F22">
-        <v>1.922652179774218</v>
+        <v>1.404829758703997</v>
       </c>
       <c r="G22">
-        <v>1.912280967375608</v>
+        <v>1.306345058824235</v>
       </c>
       <c r="H22">
-        <v>0.9441380764073131</v>
+        <v>0.001926377618073349</v>
       </c>
       <c r="I22">
-        <v>1.649958788865774</v>
+        <v>0.008209679128015956</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7746190105600022</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.203883096982977</v>
       </c>
       <c r="L22">
-        <v>0.3556990261844533</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.371027234900396</v>
       </c>
       <c r="N22">
-        <v>12.95085643057962</v>
+        <v>0.1176994916378575</v>
       </c>
       <c r="O22">
-        <v>5.985535403724725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.202735391159962</v>
+      </c>
+      <c r="P22">
+        <v>0.7356552364180402</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2627242306233342</v>
+        <v>0.2139214636872708</v>
       </c>
       <c r="D23">
-        <v>0.005026047235627829</v>
+        <v>0.05640442004762392</v>
       </c>
       <c r="E23">
-        <v>0.229959664753288</v>
+        <v>0.110035451735758</v>
       </c>
       <c r="F23">
-        <v>1.849470044805088</v>
+        <v>1.367004072342667</v>
       </c>
       <c r="G23">
-        <v>1.83799088970764</v>
+        <v>1.271819672055244</v>
       </c>
       <c r="H23">
-        <v>0.911149399306737</v>
+        <v>0.001397224176773904</v>
       </c>
       <c r="I23">
-        <v>1.588156258596712</v>
+        <v>0.006854603052566688</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7603227222687963</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.175423541112934</v>
       </c>
       <c r="L23">
-        <v>0.3423416942208206</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.176262877158138</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>0.1143673039133901</v>
       </c>
       <c r="O23">
-        <v>5.75882931292324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.160012235953232</v>
+      </c>
+      <c r="P23">
+        <v>0.7460293998390881</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2295738423615177</v>
+        <v>0.1871246534934272</v>
       </c>
       <c r="D24">
-        <v>0.004606692499724119</v>
+        <v>0.05282569687610206</v>
       </c>
       <c r="E24">
-        <v>0.1980186110327224</v>
+        <v>0.09739166468468241</v>
       </c>
       <c r="F24">
-        <v>1.577835658846666</v>
+        <v>1.220828344020575</v>
       </c>
       <c r="G24">
-        <v>1.562206384961598</v>
+        <v>1.137277655899751</v>
       </c>
       <c r="H24">
-        <v>0.7890839977498274</v>
+        <v>0.0001457657952661506</v>
       </c>
       <c r="I24">
-        <v>1.358991748284382</v>
+        <v>0.003168248179263422</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7043896505223444</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.062514413689271</v>
       </c>
       <c r="L24">
-        <v>0.2928841387231813</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.431859772078383</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>0.1021890891320396</v>
       </c>
       <c r="O24">
-        <v>4.918032048332748</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.9960178472867156</v>
+      </c>
+      <c r="P24">
+        <v>0.7882028229147409</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1952327410634211</v>
+        <v>0.1582809286415028</v>
       </c>
       <c r="D25">
-        <v>0.004152137609251483</v>
+        <v>0.04888590745584409</v>
       </c>
       <c r="E25">
-        <v>0.1648782658388797</v>
+        <v>0.08383352228590724</v>
       </c>
       <c r="F25">
-        <v>1.294595820467521</v>
+        <v>1.068198108999454</v>
       </c>
       <c r="G25">
-        <v>1.27450391802725</v>
+        <v>0.9968318575481447</v>
       </c>
       <c r="H25">
-        <v>0.6625688376489052</v>
+        <v>0.0002648355236865019</v>
       </c>
       <c r="I25">
-        <v>1.120484032371152</v>
+        <v>0.001216831801792218</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6466298925228386</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9433895489485948</v>
       </c>
       <c r="L25">
-        <v>0.2415390221557772</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.631839170344904</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>0.08920700483865929</v>
       </c>
       <c r="O25">
-        <v>4.042553242357087</v>
+        <v>0.8196520785215213</v>
+      </c>
+      <c r="P25">
+        <v>0.8368201644558368</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.140275333460238</v>
+        <v>0.08265785682326765</v>
       </c>
       <c r="D2">
-        <v>0.0455738601579192</v>
+        <v>0.04988934115652555</v>
       </c>
       <c r="E2">
-        <v>0.07437012211710581</v>
+        <v>0.06644391586209153</v>
       </c>
       <c r="F2">
-        <v>0.9675567557141562</v>
+        <v>0.8349923758960784</v>
       </c>
       <c r="G2">
-        <v>0.9058680425890486</v>
+        <v>0.7385738327847093</v>
       </c>
       <c r="H2">
-        <v>0.001429831587799191</v>
+        <v>0.001142386582824617</v>
       </c>
       <c r="I2">
-        <v>0.0005997772430319515</v>
+        <v>0.0005619561176821719</v>
       </c>
       <c r="J2">
-        <v>0.6105786123865187</v>
+        <v>0.5655682093279353</v>
       </c>
       <c r="K2">
-        <v>0.8670550017723286</v>
+        <v>0.7070459287386939</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3196882536340411</v>
       </c>
       <c r="M2">
-        <v>3.056339965971461</v>
+        <v>0.218407062603255</v>
       </c>
       <c r="N2">
-        <v>0.07923641167594297</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6936037676444187</v>
+        <v>2.874688705208484</v>
       </c>
       <c r="P2">
-        <v>0.8735392806092825</v>
+        <v>0.09384060248007131</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6381303598812167</v>
+      </c>
+      <c r="R2">
+        <v>0.8886702908097419</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.126044230823311</v>
+        <v>0.07489984627906665</v>
       </c>
       <c r="D3">
-        <v>0.04348436817893742</v>
+        <v>0.04649235444227529</v>
       </c>
       <c r="E3">
-        <v>0.06764478450878819</v>
+        <v>0.06103047645569681</v>
       </c>
       <c r="F3">
-        <v>0.8964213156601062</v>
+        <v>0.7805730365604262</v>
       </c>
       <c r="G3">
-        <v>0.8405378839356956</v>
+        <v>0.6935762426782901</v>
       </c>
       <c r="H3">
-        <v>0.002832717589242417</v>
+        <v>0.002255685946893515</v>
       </c>
       <c r="I3">
-        <v>0.001346688002808794</v>
+        <v>0.0009180812023594775</v>
       </c>
       <c r="J3">
-        <v>0.5844620627912889</v>
+        <v>0.5441511382135786</v>
       </c>
       <c r="K3">
-        <v>0.8106546035113169</v>
+        <v>0.6693444187954327</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3139056270463598</v>
       </c>
       <c r="M3">
-        <v>2.659198518738151</v>
+        <v>0.1968370702938316</v>
       </c>
       <c r="N3">
-        <v>0.07278487866898331</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6060272329440792</v>
+        <v>2.508273628614972</v>
       </c>
       <c r="P3">
-        <v>0.9007887533509162</v>
+        <v>0.0866499932518181</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5593184174639561</v>
+      </c>
+      <c r="R3">
+        <v>0.9071452061289023</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1171802116310445</v>
+        <v>0.07004492089168224</v>
       </c>
       <c r="D4">
-        <v>0.04218453198112471</v>
+        <v>0.04440538351378009</v>
       </c>
       <c r="E4">
-        <v>0.06348997509462606</v>
+        <v>0.05767143689326204</v>
       </c>
       <c r="F4">
-        <v>0.8533894073466826</v>
+        <v>0.747547627870297</v>
       </c>
       <c r="G4">
-        <v>0.8009698846595796</v>
+        <v>0.6664086138042222</v>
       </c>
       <c r="H4">
-        <v>0.003971232160624671</v>
+        <v>0.003159420761084109</v>
       </c>
       <c r="I4">
-        <v>0.002185426928247747</v>
+        <v>0.001421488601365706</v>
       </c>
       <c r="J4">
-        <v>0.56878283280858</v>
+        <v>0.5310118032554385</v>
       </c>
       <c r="K4">
-        <v>0.7762248505253098</v>
+        <v>0.6461597399838581</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3100483572959902</v>
       </c>
       <c r="M4">
-        <v>2.415014839569722</v>
+        <v>0.1844004985906658</v>
       </c>
       <c r="N4">
-        <v>0.06883452630242104</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5521396850830058</v>
+        <v>2.282495334076913</v>
       </c>
       <c r="P4">
-        <v>0.9182058073798416</v>
+        <v>0.08225961683438499</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5107062774699855</v>
+      </c>
+      <c r="R4">
+        <v>0.9192810753384322</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1131949473830645</v>
+        <v>0.0678141409345514</v>
       </c>
       <c r="D5">
-        <v>0.04168421518351195</v>
+        <v>0.04359589976430911</v>
       </c>
       <c r="E5">
-        <v>0.06173724872607522</v>
+        <v>0.0562470320709334</v>
       </c>
       <c r="F5">
-        <v>0.8351532729444671</v>
+        <v>0.7334240578149789</v>
       </c>
       <c r="G5">
-        <v>0.7840169017545833</v>
+        <v>0.6546205177271531</v>
       </c>
       <c r="H5">
-        <v>0.00450624105982278</v>
+        <v>0.003584331014469755</v>
       </c>
       <c r="I5">
-        <v>0.002694095732112434</v>
+        <v>0.00178156193028034</v>
       </c>
       <c r="J5">
-        <v>0.5619963657359648</v>
+        <v>0.5252214883818169</v>
       </c>
       <c r="K5">
-        <v>0.7612459262298117</v>
+        <v>0.635852538661652</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3080300567064072</v>
       </c>
       <c r="M5">
-        <v>2.314143007269053</v>
+        <v>0.1792645803639132</v>
       </c>
       <c r="N5">
-        <v>0.06727578337303086</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5297753251690267</v>
+        <v>2.189106081610333</v>
       </c>
       <c r="P5">
-        <v>0.9256000444112154</v>
+        <v>0.08052910350416553</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4904961436757844</v>
+      </c>
+      <c r="R5">
+        <v>0.924618268207297</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1121166907465607</v>
+        <v>0.06716555624418419</v>
       </c>
       <c r="D6">
-        <v>0.04164234150634272</v>
+        <v>0.04351247548099835</v>
       </c>
       <c r="E6">
-        <v>0.0613818647358908</v>
+        <v>0.0559536220500032</v>
       </c>
       <c r="F6">
-        <v>0.8310959309021086</v>
+        <v>0.7301630878494549</v>
       </c>
       <c r="G6">
-        <v>0.7800445390464859</v>
+        <v>0.6516650774144352</v>
       </c>
       <c r="H6">
-        <v>0.004604762316210209</v>
+        <v>0.003662662303901776</v>
       </c>
       <c r="I6">
-        <v>0.002884109432899074</v>
+        <v>0.001960150740803357</v>
       </c>
       <c r="J6">
-        <v>0.5602867099923543</v>
+        <v>0.523726465234148</v>
       </c>
       <c r="K6">
-        <v>0.7575492596661775</v>
+        <v>0.6331063407375126</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3072403231742555</v>
       </c>
       <c r="M6">
-        <v>2.29584481384336</v>
+        <v>0.1780956454722151</v>
       </c>
       <c r="N6">
-        <v>0.067077806784404</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5256049452635025</v>
+        <v>2.17215438044127</v>
       </c>
       <c r="P6">
-        <v>0.9269983078230055</v>
+        <v>0.08030761553148835</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4867179733519436</v>
+      </c>
+      <c r="R6">
+        <v>0.925760491139151</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1159891870082461</v>
+        <v>0.06939511490703865</v>
       </c>
       <c r="D7">
-        <v>0.04229179650415205</v>
+        <v>0.0446210105828051</v>
       </c>
       <c r="E7">
-        <v>0.06329155175263601</v>
+        <v>0.05753549995543139</v>
       </c>
       <c r="F7">
-        <v>0.8503035527255633</v>
+        <v>0.7433008467546145</v>
       </c>
       <c r="G7">
-        <v>0.7975547805153695</v>
+        <v>0.667052836047958</v>
       </c>
       <c r="H7">
-        <v>0.003992514680563608</v>
+        <v>0.003181245357708695</v>
       </c>
       <c r="I7">
-        <v>0.002447332302088157</v>
+        <v>0.001723010680727555</v>
       </c>
       <c r="J7">
-        <v>0.567084703176036</v>
+        <v>0.5230859697273331</v>
       </c>
       <c r="K7">
-        <v>0.7727066897481336</v>
+        <v>0.6420482451138554</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3083216682905388</v>
       </c>
       <c r="M7">
-        <v>2.409426353449561</v>
+        <v>0.1830406416936619</v>
       </c>
       <c r="N7">
-        <v>0.0689799985916153</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5505916135910383</v>
+        <v>2.274729465514923</v>
       </c>
       <c r="P7">
-        <v>0.9187585286960029</v>
+        <v>0.08240568286362659</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5089495579236569</v>
+      </c>
+      <c r="R7">
+        <v>0.9204397449258579</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1338717632836648</v>
+        <v>0.07945699178274879</v>
       </c>
       <c r="D8">
-        <v>0.04501141235446937</v>
+        <v>0.04920520636980186</v>
       </c>
       <c r="E8">
-        <v>0.07182304111685234</v>
+        <v>0.06450609342191882</v>
       </c>
       <c r="F8">
-        <v>0.9391102205752162</v>
+        <v>0.8077023067211115</v>
       </c>
       <c r="G8">
-        <v>0.8789834450936809</v>
+        <v>0.731209139705058</v>
       </c>
       <c r="H8">
-        <v>0.001866471944197423</v>
+        <v>0.001499168093641146</v>
       </c>
       <c r="I8">
-        <v>0.001071323396245383</v>
+        <v>0.0009737115333878776</v>
       </c>
       <c r="J8">
-        <v>0.5993658882273394</v>
+        <v>0.5352613059505984</v>
       </c>
       <c r="K8">
-        <v>0.8431513707572407</v>
+        <v>0.6865256309640628</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3147025494716118</v>
       </c>
       <c r="M8">
-        <v>2.91378879413196</v>
+        <v>0.2081900566787453</v>
       </c>
       <c r="N8">
-        <v>0.07723185392099907</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6617586238220454</v>
+        <v>2.734589310830103</v>
       </c>
       <c r="P8">
-        <v>0.8834576846121145</v>
+        <v>0.09156570979434164</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6083371275837237</v>
+      </c>
+      <c r="R8">
+        <v>0.89732807426455</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1700878876947343</v>
+        <v>0.09940483548403023</v>
       </c>
       <c r="D9">
-        <v>0.05000561161594419</v>
+        <v>0.05762124803833046</v>
       </c>
       <c r="E9">
-        <v>0.08871444234644343</v>
+        <v>0.07806914513791696</v>
       </c>
       <c r="F9">
-        <v>1.124175661629494</v>
+        <v>0.9476391666845814</v>
       </c>
       <c r="G9">
-        <v>1.04937965085179</v>
+        <v>0.853190693236499</v>
       </c>
       <c r="H9">
-        <v>4.08821033381912E-05</v>
+        <v>3.711382449766987E-05</v>
       </c>
       <c r="I9">
-        <v>0.001244231172631949</v>
+        <v>0.001470748277231593</v>
       </c>
       <c r="J9">
-        <v>0.6686748238110169</v>
+        <v>0.5846973286506483</v>
       </c>
       <c r="K9">
-        <v>0.9892322445288713</v>
+        <v>0.7828725964514973</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3286127239189014</v>
       </c>
       <c r="M9">
-        <v>3.908925122421181</v>
+        <v>0.2671880068570616</v>
       </c>
       <c r="N9">
-        <v>0.09325569152230884</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8813261010908491</v>
+        <v>3.647192597810886</v>
       </c>
       <c r="P9">
-        <v>0.8189999967340462</v>
+        <v>0.1094812962932608</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8049093418185365</v>
+      </c>
+      <c r="R9">
+        <v>0.8557144425247074</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1920517505359243</v>
+        <v>0.1123225673307289</v>
       </c>
       <c r="D10">
-        <v>0.05426725202383409</v>
+        <v>0.06517624033582337</v>
       </c>
       <c r="E10">
-        <v>0.09704503994909786</v>
+        <v>0.08458593333475406</v>
       </c>
       <c r="F10">
-        <v>1.249521655749362</v>
+        <v>1.032204396565007</v>
       </c>
       <c r="G10">
-        <v>1.161572170992983</v>
+        <v>0.954136932280548</v>
       </c>
       <c r="H10">
-        <v>0.0005026586658880561</v>
+        <v>0.0004117790734254889</v>
       </c>
       <c r="I10">
-        <v>0.003710525265864462</v>
+        <v>0.003588653214071869</v>
       </c>
       <c r="J10">
-        <v>0.7134597720853719</v>
+        <v>0.5790823593774803</v>
       </c>
       <c r="K10">
-        <v>1.082092037446202</v>
+        <v>0.8350802636317809</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3306615840533809</v>
       </c>
       <c r="M10">
-        <v>4.621821391756498</v>
+        <v>0.3072881979497737</v>
       </c>
       <c r="N10">
-        <v>0.09941741338383991</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.026939044883989</v>
+        <v>4.284051743612338</v>
       </c>
       <c r="P10">
-        <v>0.7792403252242153</v>
+        <v>0.1162002313899961</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9323694692918565</v>
+      </c>
+      <c r="R10">
+        <v>0.8378347461230504</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1703948474069108</v>
+        <v>0.1028480825424936</v>
       </c>
       <c r="D11">
-        <v>0.06233614409611477</v>
+        <v>0.07690317033440408</v>
       </c>
       <c r="E11">
-        <v>0.07123185536643462</v>
+        <v>0.06210400474183331</v>
       </c>
       <c r="F11">
-        <v>1.184838042310631</v>
+        <v>0.9592949036138521</v>
       </c>
       <c r="G11">
-        <v>1.076884732637993</v>
+        <v>0.9280492516759011</v>
       </c>
       <c r="H11">
-        <v>0.01908104952269696</v>
+        <v>0.01895941879968532</v>
       </c>
       <c r="I11">
-        <v>0.005021490757639135</v>
+        <v>0.004802513062330149</v>
       </c>
       <c r="J11">
-        <v>0.6660984032688475</v>
+        <v>0.4734903813232165</v>
       </c>
       <c r="K11">
-        <v>0.9954400916955919</v>
+        <v>0.7521611343122316</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2939385084723938</v>
       </c>
       <c r="M11">
-        <v>4.792531238155334</v>
+        <v>0.2832467636355318</v>
       </c>
       <c r="N11">
-        <v>0.06304749515173924</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.962853281405927</v>
+        <v>4.420548683862933</v>
       </c>
       <c r="P11">
-        <v>0.800176649984202</v>
+        <v>0.07296066065801199</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.8690971097775204</v>
+      </c>
+      <c r="R11">
+        <v>0.887317405255736</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1513635236326394</v>
+        <v>0.09407764584971545</v>
       </c>
       <c r="D12">
-        <v>0.06892788257415106</v>
+        <v>0.0854881528777014</v>
       </c>
       <c r="E12">
-        <v>0.05475882137354304</v>
+        <v>0.04829675625145846</v>
       </c>
       <c r="F12">
-        <v>1.10885674449456</v>
+        <v>0.890447323897277</v>
       </c>
       <c r="G12">
-        <v>0.9886687792640885</v>
+        <v>0.8754453473374042</v>
       </c>
       <c r="H12">
-        <v>0.0576699104956333</v>
+        <v>0.05756317663513499</v>
       </c>
       <c r="I12">
-        <v>0.005103274803834879</v>
+        <v>0.004857804084601902</v>
       </c>
       <c r="J12">
-        <v>0.6199237855106219</v>
+        <v>0.414363136029948</v>
       </c>
       <c r="K12">
-        <v>0.9104065701083002</v>
+        <v>0.6822681351350681</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2670508803575729</v>
       </c>
       <c r="M12">
-        <v>4.790274249063259</v>
+        <v>0.258176287641632</v>
       </c>
       <c r="N12">
-        <v>0.04660319073980457</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8821595456919056</v>
+        <v>4.415217424125331</v>
       </c>
       <c r="P12">
-        <v>0.8334807249640406</v>
+        <v>0.05094544305579518</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7940664050064186</v>
+      </c>
+      <c r="R12">
+        <v>0.9376999830275849</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1315550413868678</v>
+        <v>0.08414537768645047</v>
       </c>
       <c r="D13">
-        <v>0.07486112404104972</v>
+        <v>0.09173299362612397</v>
       </c>
       <c r="E13">
-        <v>0.04423185040365674</v>
+        <v>0.04018828515663819</v>
       </c>
       <c r="F13">
-        <v>1.01532686637465</v>
+        <v>0.8195538297116087</v>
       </c>
       <c r="G13">
-        <v>0.8877232381322102</v>
+        <v>0.7873154810144598</v>
       </c>
       <c r="H13">
-        <v>0.1132634526709211</v>
+        <v>0.1132042176506616</v>
       </c>
       <c r="I13">
-        <v>0.004530522029871697</v>
+        <v>0.004412605998021846</v>
       </c>
       <c r="J13">
-        <v>0.5694728024321734</v>
+        <v>0.389446367567146</v>
       </c>
       <c r="K13">
-        <v>0.8167226653542059</v>
+        <v>0.6156836424098273</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2444808772051488</v>
       </c>
       <c r="M13">
-        <v>4.647895491644704</v>
+        <v>0.2303901077199271</v>
       </c>
       <c r="N13">
-        <v>0.04458695344880681</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7827113479370951</v>
+        <v>4.301065163317162</v>
       </c>
       <c r="P13">
-        <v>0.8777482631350111</v>
+        <v>0.0441996558165334</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7049557156953625</v>
+      </c>
+      <c r="R13">
+        <v>0.9875834913364088</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1175385966274831</v>
+        <v>0.07694227164512668</v>
       </c>
       <c r="D14">
-        <v>0.0788241716491882</v>
+        <v>0.0950621891695107</v>
       </c>
       <c r="E14">
-        <v>0.04047885215854541</v>
+        <v>0.03805536238097984</v>
       </c>
       <c r="F14">
-        <v>0.9419190135811562</v>
+        <v>0.7681664297821271</v>
       </c>
       <c r="G14">
-        <v>0.8114612626255848</v>
+        <v>0.7114666788328918</v>
       </c>
       <c r="H14">
-        <v>0.1625011485431429</v>
+        <v>0.1624765366713348</v>
       </c>
       <c r="I14">
-        <v>0.003962406247389083</v>
+        <v>0.003998165295966416</v>
       </c>
       <c r="J14">
-        <v>0.5322491091252317</v>
+        <v>0.3843863108466081</v>
       </c>
       <c r="K14">
-        <v>0.7473658923701549</v>
+        <v>0.5698472830641848</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2301131753839201</v>
       </c>
       <c r="M14">
-        <v>4.484163162981872</v>
+        <v>0.2097050106747673</v>
       </c>
       <c r="N14">
-        <v>0.05166863129257138</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7053396473894864</v>
+        <v>4.170613973897559</v>
       </c>
       <c r="P14">
-        <v>0.9144900051549314</v>
+        <v>0.04848485402992253</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6366139508427437</v>
+      </c>
+      <c r="R14">
+        <v>1.022241560530404</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1134776012982712</v>
+        <v>0.07472372290635931</v>
       </c>
       <c r="D15">
-        <v>0.07959987541880764</v>
+        <v>0.09533449144468875</v>
       </c>
       <c r="E15">
-        <v>0.03994695387042002</v>
+        <v>0.03794001061897312</v>
       </c>
       <c r="F15">
-        <v>0.9194023440438883</v>
+        <v>0.753861854554458</v>
       </c>
       <c r="G15">
-        <v>0.7890522077425146</v>
+        <v>0.6859861505326705</v>
       </c>
       <c r="H15">
-        <v>0.1749712123755955</v>
+        <v>0.1749579746974774</v>
       </c>
       <c r="I15">
-        <v>0.003810172391487399</v>
+        <v>0.003929238582463412</v>
       </c>
       <c r="J15">
-        <v>0.5217275445894956</v>
+        <v>0.3880172675701345</v>
       </c>
       <c r="K15">
-        <v>0.7274209091401005</v>
+        <v>0.5578895853801882</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2268487869787457</v>
       </c>
       <c r="M15">
-        <v>4.413307694975686</v>
+        <v>0.2036529891001422</v>
       </c>
       <c r="N15">
-        <v>0.05431165729195087</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6820157643114442</v>
+        <v>4.113871003743725</v>
       </c>
       <c r="P15">
-        <v>0.9250324851153806</v>
+        <v>0.05061273156979595</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6163633476701591</v>
+      </c>
+      <c r="R15">
+        <v>1.02985286622264</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1081859875982403</v>
+        <v>0.07043070905849547</v>
       </c>
       <c r="D16">
-        <v>0.07640429445097396</v>
+        <v>0.08920159347371026</v>
       </c>
       <c r="E16">
-        <v>0.03878731376379285</v>
+        <v>0.03700060218256462</v>
       </c>
       <c r="F16">
-        <v>0.8839955358685643</v>
+        <v>0.7424867273951321</v>
       </c>
       <c r="G16">
-        <v>0.7609870988935654</v>
+        <v>0.6321006270485441</v>
       </c>
       <c r="H16">
-        <v>0.1621066253500345</v>
+        <v>0.1621142228169106</v>
       </c>
       <c r="I16">
-        <v>0.002889642843520335</v>
+        <v>0.003227079554916301</v>
       </c>
       <c r="J16">
-        <v>0.5123309419446826</v>
+        <v>0.433736885741439</v>
       </c>
       <c r="K16">
-        <v>0.7064579394909458</v>
+        <v>0.5558565876147199</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2312332866788758</v>
       </c>
       <c r="M16">
-        <v>4.135766032255958</v>
+        <v>0.1961123094348167</v>
       </c>
       <c r="N16">
-        <v>0.05206378837620562</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6420226370681021</v>
+        <v>3.887013465055418</v>
       </c>
       <c r="P16">
-        <v>0.9296522782789651</v>
+        <v>0.04953696074767322</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5840959378406936</v>
+      </c>
+      <c r="R16">
+        <v>1.014148101490534</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.111175700963976</v>
+        <v>0.07070367365363595</v>
       </c>
       <c r="D17">
-        <v>0.07182698517718933</v>
+        <v>0.08308503655245403</v>
       </c>
       <c r="E17">
-        <v>0.03921077057342348</v>
+        <v>0.03667151141531499</v>
       </c>
       <c r="F17">
-        <v>0.8955029124849432</v>
+        <v>0.7593250617189256</v>
       </c>
       <c r="G17">
-        <v>0.7794324908669381</v>
+        <v>0.6343981904985583</v>
       </c>
       <c r="H17">
-        <v>0.1243066576753336</v>
+        <v>0.1243054552004139</v>
       </c>
       <c r="I17">
-        <v>0.00253909398361607</v>
+        <v>0.00295055295900859</v>
       </c>
       <c r="J17">
-        <v>0.5246929424883149</v>
+        <v>0.4675336470728979</v>
       </c>
       <c r="K17">
-        <v>0.7265500575277883</v>
+        <v>0.5774040557763271</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2421808299800432</v>
       </c>
       <c r="M17">
-        <v>4.009695808793651</v>
+        <v>0.2005263406210318</v>
       </c>
       <c r="N17">
-        <v>0.04524370744085005</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6516208657783622</v>
+        <v>3.77802179287869</v>
       </c>
       <c r="P17">
-        <v>0.9138210308710484</v>
+        <v>0.04496446489657835</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5946494380645788</v>
+      </c>
+      <c r="R17">
+        <v>0.9865810091868354</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1233694687972928</v>
+        <v>0.07587743816048231</v>
       </c>
       <c r="D18">
-        <v>0.06576711758354037</v>
+        <v>0.07609105311726694</v>
       </c>
       <c r="E18">
-        <v>0.04442680010760824</v>
+        <v>0.04008736864756557</v>
       </c>
       <c r="F18">
-        <v>0.9513628685702002</v>
+        <v>0.8078189516014049</v>
       </c>
       <c r="G18">
-        <v>0.8435576223786683</v>
+        <v>0.6801259990748747</v>
       </c>
       <c r="H18">
-        <v>0.07147203017743209</v>
+        <v>0.07146835710405242</v>
       </c>
       <c r="I18">
-        <v>0.002240309087412129</v>
+        <v>0.002614656225862433</v>
       </c>
       <c r="J18">
-        <v>0.5588677681192706</v>
+        <v>0.5055173325287399</v>
       </c>
       <c r="K18">
-        <v>0.7881719449930529</v>
+        <v>0.6270962628577763</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2621971863679846</v>
       </c>
       <c r="M18">
-        <v>4.002012736103893</v>
+        <v>0.2174886897403709</v>
       </c>
       <c r="N18">
-        <v>0.04137892544244925</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7074105413636786</v>
+        <v>3.76671855176545</v>
       </c>
       <c r="P18">
-        <v>0.8811987157085213</v>
+        <v>0.04473654583021425</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6462137091490732</v>
+      </c>
+      <c r="R18">
+        <v>0.9453111109726393</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1423774812026082</v>
+        <v>0.08498169684815338</v>
       </c>
       <c r="D19">
-        <v>0.05983278163994754</v>
+        <v>0.06956454605190032</v>
       </c>
       <c r="E19">
-        <v>0.05803295700976463</v>
+        <v>0.05102715368655275</v>
       </c>
       <c r="F19">
-        <v>1.035761342419278</v>
+        <v>0.8765150699558149</v>
       </c>
       <c r="G19">
-        <v>0.9373312996150815</v>
+        <v>0.7522733218238642</v>
       </c>
       <c r="H19">
-        <v>0.02621016340221161</v>
+        <v>0.0262128898862457</v>
       </c>
       <c r="I19">
-        <v>0.002500014287036834</v>
+        <v>0.002873693852723846</v>
       </c>
       <c r="J19">
-        <v>0.6067037349144044</v>
+        <v>0.5467984956745084</v>
       </c>
       <c r="K19">
-        <v>0.8764284315263851</v>
+        <v>0.6944351270852422</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2875376678822121</v>
       </c>
       <c r="M19">
-        <v>4.081602780963635</v>
+        <v>0.2427448518762176</v>
       </c>
       <c r="N19">
-        <v>0.05140677317630882</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.797167000424281</v>
+        <v>3.829384442706214</v>
       </c>
       <c r="P19">
-        <v>0.8446888361466875</v>
+        <v>0.05968422594952116</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7280198863356375</v>
+      </c>
+      <c r="R19">
+        <v>0.9016858169320514</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1825623419987039</v>
+        <v>0.1061738862229475</v>
       </c>
       <c r="D20">
-        <v>0.05356719732197135</v>
+        <v>0.06336223484225911</v>
       </c>
       <c r="E20">
-        <v>0.09414360611314621</v>
+        <v>0.08212271021098161</v>
       </c>
       <c r="F20">
-        <v>1.206727066537127</v>
+        <v>1.007094001463699</v>
       </c>
       <c r="G20">
-        <v>1.121123610924016</v>
+        <v>0.905107599714114</v>
       </c>
       <c r="H20">
-        <v>0.0002418705064020088</v>
+        <v>0.0002048274058230604</v>
       </c>
       <c r="I20">
-        <v>0.00359196486381741</v>
+        <v>0.003790356555474439</v>
       </c>
       <c r="J20">
-        <v>0.6961832925736786</v>
+        <v>0.5978694107455738</v>
       </c>
       <c r="K20">
-        <v>1.046526683462915</v>
+        <v>0.8163410216166653</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3283393135073212</v>
       </c>
       <c r="M20">
-        <v>4.420092990234025</v>
+        <v>0.2945705130362981</v>
       </c>
       <c r="N20">
-        <v>0.09804981142438862</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9840786872369591</v>
+        <v>4.113436405980508</v>
       </c>
       <c r="P20">
-        <v>0.7914760087384707</v>
+        <v>0.1147399573513468</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8959993552338403</v>
+      </c>
+      <c r="R20">
+        <v>0.8432730733870315</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2056553503289535</v>
+        <v>0.1220228625197279</v>
       </c>
       <c r="D21">
-        <v>0.05580673302767636</v>
+        <v>0.06988183089987388</v>
       </c>
       <c r="E21">
-        <v>0.1067915389905423</v>
+        <v>0.09338962328259015</v>
       </c>
       <c r="F21">
-        <v>1.327764147407152</v>
+        <v>1.062383899568715</v>
       </c>
       <c r="G21">
-        <v>1.234668830477119</v>
+        <v>1.076561189208547</v>
       </c>
       <c r="H21">
-        <v>0.000988238454413759</v>
+        <v>0.0007047513616942336</v>
       </c>
       <c r="I21">
-        <v>0.006244000482817036</v>
+        <v>0.005797394616667617</v>
       </c>
       <c r="J21">
-        <v>0.744354242072319</v>
+        <v>0.4963923558512988</v>
       </c>
       <c r="K21">
-        <v>1.143187703404493</v>
+        <v>0.8537372188869199</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3288473689984883</v>
       </c>
       <c r="M21">
-        <v>4.996369438627482</v>
+        <v>0.3252456884881951</v>
       </c>
       <c r="N21">
-        <v>0.1118547742729419</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.119815816109764</v>
+        <v>4.573896042782735</v>
       </c>
       <c r="P21">
-        <v>0.7566754235364357</v>
+        <v>0.1301305273152238</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.008577510530515</v>
+      </c>
+      <c r="R21">
+        <v>0.8341063202994974</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.220413103335261</v>
+        <v>0.1327494284768562</v>
       </c>
       <c r="D22">
-        <v>0.05740480413992444</v>
+        <v>0.07454916287852598</v>
       </c>
       <c r="E22">
-        <v>0.1132978177196691</v>
+        <v>0.09929106848828084</v>
       </c>
       <c r="F22">
-        <v>1.404829758703997</v>
+        <v>1.09423583906856</v>
       </c>
       <c r="G22">
-        <v>1.306345058824235</v>
+        <v>1.197113882621636</v>
       </c>
       <c r="H22">
-        <v>0.001926377618073349</v>
+        <v>0.001371793540452693</v>
       </c>
       <c r="I22">
-        <v>0.008209679128015956</v>
+        <v>0.007091284249790775</v>
       </c>
       <c r="J22">
-        <v>0.7746190105600022</v>
+        <v>0.4303776966845589</v>
       </c>
       <c r="K22">
-        <v>1.203883096982977</v>
+        <v>0.8744009255616163</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3277694339350106</v>
       </c>
       <c r="M22">
-        <v>5.371027234900396</v>
+        <v>0.3443387948794836</v>
       </c>
       <c r="N22">
-        <v>0.1176994916378575</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.202735391159962</v>
+        <v>4.867973379998546</v>
       </c>
       <c r="P22">
-        <v>0.7356552364180402</v>
+        <v>0.1365735702971875</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.076037919428131</v>
+      </c>
+      <c r="R22">
+        <v>0.8318820733559136</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2139214636872708</v>
+        <v>0.1275028111651295</v>
       </c>
       <c r="D23">
-        <v>0.05640442004762392</v>
+        <v>0.07157503507382046</v>
       </c>
       <c r="E23">
-        <v>0.110035451735758</v>
+        <v>0.09620640335221253</v>
       </c>
       <c r="F23">
-        <v>1.367004072342667</v>
+        <v>1.084159003389942</v>
       </c>
       <c r="G23">
-        <v>1.271819672055244</v>
+        <v>1.125184945481138</v>
       </c>
       <c r="H23">
-        <v>0.001397224176773904</v>
+        <v>0.001000610939334123</v>
       </c>
       <c r="I23">
-        <v>0.006854603052566688</v>
+        <v>0.00605616320605229</v>
       </c>
       <c r="J23">
-        <v>0.7603227222687963</v>
+        <v>0.4792595601253851</v>
       </c>
       <c r="K23">
-        <v>1.175423541112934</v>
+        <v>0.8695774576409718</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3305054908023237</v>
       </c>
       <c r="M23">
-        <v>5.176262877158138</v>
+        <v>0.3366225552626645</v>
       </c>
       <c r="N23">
-        <v>0.1143673039133901</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.160012235953232</v>
+        <v>4.723084836689168</v>
       </c>
       <c r="P23">
-        <v>0.7460293998390881</v>
+        <v>0.132914431529592</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.042388826338531</v>
+      </c>
+      <c r="R23">
+        <v>0.8301423209254537</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1871246534934272</v>
+        <v>0.1087240949089718</v>
       </c>
       <c r="D24">
-        <v>0.05282569687610206</v>
+        <v>0.06242896642110907</v>
       </c>
       <c r="E24">
-        <v>0.09739166468468241</v>
+        <v>0.08498534348972697</v>
       </c>
       <c r="F24">
-        <v>1.220828344020575</v>
+        <v>1.019053574547385</v>
       </c>
       <c r="G24">
-        <v>1.137277655899751</v>
+        <v>0.9175782142154247</v>
       </c>
       <c r="H24">
-        <v>0.0001457657952661506</v>
+        <v>0.0001043576349366582</v>
       </c>
       <c r="I24">
-        <v>0.003168248179263422</v>
+        <v>0.003258370448807391</v>
       </c>
       <c r="J24">
-        <v>0.7043896505223444</v>
+        <v>0.6057259189848025</v>
       </c>
       <c r="K24">
-        <v>1.062514413689271</v>
+        <v>0.829117998465577</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.33319337356982</v>
       </c>
       <c r="M24">
-        <v>4.431859772078383</v>
+        <v>0.299317320018524</v>
       </c>
       <c r="N24">
-        <v>0.1021890891320396</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9960178472867156</v>
+        <v>4.123442995189009</v>
       </c>
       <c r="P24">
-        <v>0.7882028229147409</v>
+        <v>0.1194809557158507</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.9069233443164677</v>
+      </c>
+      <c r="R24">
+        <v>0.8381964279407015</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1582809286415028</v>
+        <v>0.09255217083562428</v>
       </c>
       <c r="D25">
-        <v>0.04888590745584409</v>
+        <v>0.0554868663763699</v>
       </c>
       <c r="E25">
-        <v>0.08383352228590724</v>
+        <v>0.07408847916180328</v>
       </c>
       <c r="F25">
-        <v>1.068198108999454</v>
+        <v>0.9070062638136989</v>
       </c>
       <c r="G25">
-        <v>0.9968318575481447</v>
+        <v>0.8095312613522054</v>
       </c>
       <c r="H25">
-        <v>0.0002648355236865019</v>
+        <v>0.0002186448715908451</v>
       </c>
       <c r="I25">
-        <v>0.001216831801792218</v>
+        <v>0.001539932779405007</v>
       </c>
       <c r="J25">
-        <v>0.6466298925228386</v>
+        <v>0.5777012101303711</v>
       </c>
       <c r="K25">
-        <v>0.9433895489485948</v>
+        <v>0.7533698333891081</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3237969393154856</v>
       </c>
       <c r="M25">
-        <v>3.631839170344904</v>
+        <v>0.2492338961494411</v>
       </c>
       <c r="N25">
-        <v>0.08920700483865929</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8196520785215213</v>
+        <v>3.3973254885031</v>
       </c>
       <c r="P25">
-        <v>0.8368201644558368</v>
+        <v>0.1049548109798408</v>
       </c>
       <c r="Q25">
+        <v>0.7502642010230005</v>
+      </c>
+      <c r="R25">
+        <v>0.8670667883233278</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
